--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>985129.3065159607</v>
+        <v>983094.2830713409</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2303930.037886058</v>
+        <v>2303930.037886056</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>263.2420339516666</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>140.0390559390594</v>
+        <v>137.2628067607419</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>117.096442017242</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>178.9590178261195</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="W4" t="n">
-        <v>142.3870695882587</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G5" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>108.5352083273466</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>16.15254088235802</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>121.8933560395404</v>
+        <v>147.3452674905975</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V7" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>31.47257827775241</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.9748228912465</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>18.7104230564944</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.2638403784901</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.6804115222733</v>
+        <v>378.6804115222732</v>
       </c>
       <c r="C11" t="n">
-        <v>361.2194616298003</v>
+        <v>361.2194616298002</v>
       </c>
       <c r="D11" t="n">
-        <v>350.6296114794757</v>
+        <v>350.6296114794756</v>
       </c>
       <c r="E11" t="n">
-        <v>377.8769399310545</v>
+        <v>377.8769399310544</v>
       </c>
       <c r="F11" t="n">
-        <v>402.8226156005042</v>
+        <v>402.822615600504</v>
       </c>
       <c r="G11" t="n">
-        <v>407.9593408835801</v>
+        <v>407.95934088358</v>
       </c>
       <c r="H11" t="n">
         <v>301.7280026552862</v>
       </c>
       <c r="I11" t="n">
-        <v>79.58602631006796</v>
+        <v>79.58602631006789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>129.9965280462393</v>
+        <v>129.9965280462392</v>
       </c>
       <c r="T11" t="n">
-        <v>204.6405911114269</v>
+        <v>204.6405911114268</v>
       </c>
       <c r="U11" t="n">
-        <v>247.0290254474014</v>
+        <v>247.0290254474013</v>
       </c>
       <c r="V11" t="n">
-        <v>323.6988283289276</v>
+        <v>323.6988283289275</v>
       </c>
       <c r="W11" t="n">
-        <v>345.1875385762057</v>
+        <v>345.1875385762056</v>
       </c>
       <c r="X11" t="n">
-        <v>365.6776705372617</v>
+        <v>365.6776705372616</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.1845085148463</v>
+        <v>382.1845085148462</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>95.2347751782725</v>
       </c>
       <c r="I12" t="n">
-        <v>28.79025133140684</v>
+        <v>28.79025133140687</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.77855004073</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0528436308951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.8841686541853</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.2445964482788</v>
       </c>
       <c r="T13" t="n">
-        <v>217.5866149050615</v>
+        <v>217.5866149050613</v>
       </c>
       <c r="U13" t="n">
-        <v>282.1851029040238</v>
+        <v>282.1851029040237</v>
       </c>
       <c r="V13" t="n">
-        <v>80.82918577172859</v>
+        <v>93.40681230394748</v>
       </c>
       <c r="W13" t="n">
-        <v>282.4695681953837</v>
+        <v>282.4695681953836</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>221.6562252478298</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.5312232108875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378.6804115222733</v>
+        <v>378.6804115222732</v>
       </c>
       <c r="C14" t="n">
-        <v>361.2194616298003</v>
+        <v>361.2194616298002</v>
       </c>
       <c r="D14" t="n">
-        <v>350.6296114794757</v>
+        <v>350.6296114794756</v>
       </c>
       <c r="E14" t="n">
-        <v>377.8769399310545</v>
+        <v>377.8769399310544</v>
       </c>
       <c r="F14" t="n">
-        <v>402.8226156005042</v>
+        <v>402.822615600504</v>
       </c>
       <c r="G14" t="n">
-        <v>407.9593408835801</v>
+        <v>407.95934088358</v>
       </c>
       <c r="H14" t="n">
         <v>301.7280026552862</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.9965280462393</v>
+        <v>129.9965280462392</v>
       </c>
       <c r="T14" t="n">
-        <v>204.6405911114269</v>
+        <v>204.6405911114268</v>
       </c>
       <c r="U14" t="n">
-        <v>247.0290254474014</v>
+        <v>247.0290254474013</v>
       </c>
       <c r="V14" t="n">
-        <v>323.6988283289276</v>
+        <v>323.6988283289275</v>
       </c>
       <c r="W14" t="n">
-        <v>345.1875385762057</v>
+        <v>345.1875385762056</v>
       </c>
       <c r="X14" t="n">
-        <v>365.6776705372617</v>
+        <v>365.6776705372616</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.1845085148463</v>
+        <v>382.1845085148462</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.583229903776</v>
       </c>
       <c r="H15" t="n">
-        <v>95.23477517827249</v>
+        <v>95.23477517827251</v>
       </c>
       <c r="I15" t="n">
-        <v>28.79025133140684</v>
+        <v>28.79025133140688</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.986607315655</v>
+        <v>138.9866073156551</v>
       </c>
       <c r="T15" t="n">
         <v>193.0695357499952</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.77855004073</v>
+        <v>173.8629930233417</v>
       </c>
       <c r="C16" t="n">
-        <v>163.1933909574205</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.2445964482788</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.5866149050613</v>
       </c>
       <c r="U16" t="n">
-        <v>282.1851029040238</v>
+        <v>282.1851029040237</v>
       </c>
       <c r="V16" t="n">
-        <v>248.0842131826207</v>
+        <v>248.0842131826206</v>
       </c>
       <c r="W16" t="n">
-        <v>282.4695681953837</v>
+        <v>282.4695681953836</v>
       </c>
       <c r="X16" t="n">
-        <v>32.19104016764422</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.5312232108875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>378.6804115222733</v>
+        <v>378.6804115222732</v>
       </c>
       <c r="C17" t="n">
-        <v>361.2194616298003</v>
+        <v>361.2194616298002</v>
       </c>
       <c r="D17" t="n">
-        <v>350.6296114794757</v>
+        <v>350.6296114794756</v>
       </c>
       <c r="E17" t="n">
-        <v>377.8769399310545</v>
+        <v>377.8769399310544</v>
       </c>
       <c r="F17" t="n">
-        <v>402.8226156005042</v>
+        <v>402.8226156005041</v>
       </c>
       <c r="G17" t="n">
-        <v>407.9593408835801</v>
+        <v>407.95934088358</v>
       </c>
       <c r="H17" t="n">
         <v>301.7280026552862</v>
       </c>
       <c r="I17" t="n">
-        <v>79.58602631006796</v>
+        <v>79.58602631006801</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>365.6776705372617</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.1845085148463</v>
+        <v>382.1845085148462</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.583229903776</v>
       </c>
       <c r="H18" t="n">
-        <v>95.23477517827249</v>
+        <v>95.23477517827251</v>
       </c>
       <c r="I18" t="n">
-        <v>28.79025133140684</v>
+        <v>28.79025133140688</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.986607315655</v>
+        <v>138.9866073156551</v>
       </c>
       <c r="T18" t="n">
         <v>193.0695357499952</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>124.17723168027</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>20.14511276000765</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>162.461783510823</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.0528436308951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.2445964482789</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.5866149050614</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.1851029040238</v>
       </c>
       <c r="V19" t="n">
         <v>248.0842131826207</v>
       </c>
       <c r="W19" t="n">
-        <v>282.4695681953837</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.6562252478299</v>
+        <v>221.6562252478298</v>
       </c>
       <c r="Y19" t="n">
         <v>214.5312232108875</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.6804115222733</v>
+        <v>378.6804115222732</v>
       </c>
       <c r="C20" t="n">
-        <v>361.2194616298003</v>
+        <v>361.2194616298002</v>
       </c>
       <c r="D20" t="n">
-        <v>350.6296114794757</v>
+        <v>350.6296114794756</v>
       </c>
       <c r="E20" t="n">
-        <v>377.8769399310545</v>
+        <v>377.8769399310544</v>
       </c>
       <c r="F20" t="n">
-        <v>402.8226156005042</v>
+        <v>402.8226156005041</v>
       </c>
       <c r="G20" t="n">
-        <v>407.9593408835801</v>
+        <v>407.95934088358</v>
       </c>
       <c r="H20" t="n">
         <v>301.7280026552862</v>
       </c>
       <c r="I20" t="n">
-        <v>79.58602631006796</v>
+        <v>79.58602631006788</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.9965280462393</v>
+        <v>129.9965280462402</v>
       </c>
       <c r="T20" t="n">
         <v>204.6405911114269</v>
       </c>
       <c r="U20" t="n">
-        <v>247.0290254474014</v>
+        <v>247.0290254474013</v>
       </c>
       <c r="V20" t="n">
-        <v>323.6988283289286</v>
+        <v>323.6988283289276</v>
       </c>
       <c r="W20" t="n">
         <v>345.1875385762057</v>
@@ -2147,7 +2147,7 @@
         <v>365.6776705372617</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.1845085148463</v>
+        <v>382.1845085148462</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>175.77855004073</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5620428770051</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.2445964482789</v>
+        <v>194.2445964482788</v>
       </c>
       <c r="T22" t="n">
-        <v>32.35634184051016</v>
+        <v>217.5866149050614</v>
       </c>
       <c r="U22" t="n">
         <v>282.1851029040238</v>
@@ -2299,13 +2299,13 @@
         <v>248.0842131826207</v>
       </c>
       <c r="W22" t="n">
-        <v>282.4695681953837</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>66.0227879671089</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.5312232108875</v>
+        <v>214.5312232108874</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>347.8310558990601</v>
+        <v>336.6998861551876</v>
       </c>
       <c r="E23" t="n">
         <v>363.9472146067665</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.0127710247874</v>
+        <v>405.1607853031641</v>
       </c>
       <c r="H23" t="n">
-        <v>305.7814327964935</v>
+        <v>287.7982773309982</v>
       </c>
       <c r="I23" t="n">
-        <v>65.65630098577988</v>
+        <v>83.63945645127522</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>116.0668027219512</v>
+        <v>134.0499581874465</v>
       </c>
       <c r="T23" t="n">
         <v>208.6940212526342</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.632317552717</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.4378925574359</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>113.1276462648556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>180.3148711239909</v>
       </c>
       <c r="T25" t="n">
         <v>203.6568895807734</v>
@@ -2536,13 +2536,13 @@
         <v>234.1544878583327</v>
       </c>
       <c r="W25" t="n">
-        <v>268.5398428710957</v>
+        <v>51.09483031197171</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.7264999235418</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.6014978865995</v>
       </c>
     </row>
     <row r="26">
@@ -2558,22 +2558,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>349.6004907997251</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>368.0006447479738</v>
+        <v>376.8478192513053</v>
       </c>
       <c r="F26" t="n">
-        <v>392.9463204174234</v>
+        <v>392.9463204174235</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0830457004993</v>
+        <v>398.0830457004994</v>
       </c>
       <c r="H26" t="n">
         <v>305.7814327964935</v>
       </c>
       <c r="I26" t="n">
-        <v>83.63945645127522</v>
+        <v>69.70973112698728</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>134.0499581874465</v>
       </c>
       <c r="T26" t="n">
-        <v>194.7642959283462</v>
+        <v>208.6940212526342</v>
       </c>
       <c r="U26" t="n">
         <v>251.0824555886087</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>335.3112433931251</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>153.3170957743399</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.90259414549584</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.3683012651981</v>
+        <v>184.3683012651982</v>
       </c>
       <c r="T28" t="n">
-        <v>207.7103197219807</v>
+        <v>207.7103197219808</v>
       </c>
       <c r="U28" t="n">
-        <v>272.3088077209431</v>
+        <v>272.3088077209432</v>
       </c>
       <c r="V28" t="n">
-        <v>238.20791799954</v>
+        <v>238.2079179995401</v>
       </c>
       <c r="W28" t="n">
-        <v>272.593273012303</v>
+        <v>3.523843355650683</v>
       </c>
       <c r="X28" t="n">
-        <v>211.7799300647491</v>
+        <v>211.7799300647492</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>204.6549280278068</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>368.8041163391927</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>340.7533162963949</v>
+        <v>340.753316296395</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>376.8478192513047</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>392.9463204174235</v>
       </c>
       <c r="G29" t="n">
-        <v>406.9302202038303</v>
+        <v>412.0127710247874</v>
       </c>
       <c r="H29" t="n">
         <v>305.7814327964935</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>134.0499581874465</v>
+        <v>120.1202328631586</v>
       </c>
       <c r="T29" t="n">
-        <v>194.7642959283462</v>
+        <v>208.6940212526342</v>
       </c>
       <c r="U29" t="n">
         <v>251.0824555886087</v>
@@ -2855,10 +2855,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>355.801375354181</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>372.3082133317656</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.9022548576493</v>
+        <v>88.90259414549449</v>
       </c>
       <c r="C31" t="n">
-        <v>153.3170957743398</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.3683012651981</v>
+        <v>184.3683012651982</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.7103197219808</v>
       </c>
       <c r="U31" t="n">
-        <v>45.0474429286236</v>
+        <v>272.3088077209432</v>
       </c>
       <c r="V31" t="n">
-        <v>238.20791799954</v>
+        <v>238.2079179995401</v>
       </c>
       <c r="W31" t="n">
-        <v>272.593273012303</v>
+        <v>272.5932730123031</v>
       </c>
       <c r="X31" t="n">
-        <v>211.7799300647491</v>
+        <v>211.7799300647492</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.6549280278068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>321.9323895453722</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>73.24850606933822</v>
+        <v>134.0499581874465</v>
       </c>
       <c r="T32" t="n">
         <v>208.6940212526342</v>
@@ -3187,25 +3187,25 @@
         <v>110.7210800451047</v>
       </c>
       <c r="C34" t="n">
-        <v>98.13592096179525</v>
+        <v>98.13592096179524</v>
       </c>
       <c r="D34" t="n">
-        <v>79.50457288137977</v>
+        <v>79.50457288137976</v>
       </c>
       <c r="E34" t="n">
-        <v>77.32306250973659</v>
+        <v>77.32306250973657</v>
       </c>
       <c r="F34" t="n">
-        <v>76.31014788609866</v>
+        <v>76.31014788609865</v>
       </c>
       <c r="G34" t="n">
-        <v>97.40431351519766</v>
+        <v>97.40431351519764</v>
       </c>
       <c r="H34" t="n">
-        <v>79.9953736352698</v>
+        <v>79.99537363526979</v>
       </c>
       <c r="I34" t="n">
-        <v>41.95927518255715</v>
+        <v>41.95927518255714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.82669865856009</v>
+        <v>41.82669865856008</v>
       </c>
       <c r="S34" t="n">
         <v>129.1871264526536</v>
       </c>
       <c r="T34" t="n">
-        <v>152.5291449094362</v>
+        <v>152.5291449094361</v>
       </c>
       <c r="U34" t="n">
         <v>217.1276329083985</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>346.0745936236029</v>
       </c>
       <c r="G35" t="n">
         <v>412.0127710247874</v>
@@ -3323,7 +3323,7 @@
         <v>251.0824555886087</v>
       </c>
       <c r="V35" t="n">
-        <v>266.9508063520266</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>304.4714396528991</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.7814327964935</v>
       </c>
       <c r="I38" t="n">
-        <v>83.63945645127522</v>
+        <v>83.63945645127521</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>134.0499581874465</v>
       </c>
       <c r="T38" t="n">
-        <v>147.8925691345258</v>
+        <v>208.6940212526342</v>
       </c>
       <c r="U38" t="n">
         <v>251.0824555886087</v>
@@ -3600,7 +3600,7 @@
         <v>95.23477517827249</v>
       </c>
       <c r="I39" t="n">
-        <v>28.79025133140684</v>
+        <v>28.79025133140683</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.7210800451047</v>
+        <v>110.7210800451048</v>
       </c>
       <c r="C40" t="n">
-        <v>98.13592096179524</v>
+        <v>98.13592096179529</v>
       </c>
       <c r="D40" t="n">
-        <v>79.50457288137976</v>
+        <v>79.50457288137981</v>
       </c>
       <c r="E40" t="n">
-        <v>77.32306250973657</v>
+        <v>77.32306250973663</v>
       </c>
       <c r="F40" t="n">
-        <v>76.31014788609865</v>
+        <v>76.3101478860987</v>
       </c>
       <c r="G40" t="n">
-        <v>97.40431351519764</v>
+        <v>97.4043135151977</v>
       </c>
       <c r="H40" t="n">
-        <v>79.99537363526979</v>
+        <v>79.99537363526984</v>
       </c>
       <c r="I40" t="n">
-        <v>41.95927518255714</v>
+        <v>41.95927518255719</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.82669865856008</v>
+        <v>41.82669865856012</v>
       </c>
       <c r="S40" t="n">
         <v>129.1871264526536</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5291449094361</v>
+        <v>152.5291449094362</v>
       </c>
       <c r="U40" t="n">
-        <v>217.1276329083985</v>
+        <v>217.1276329083986</v>
       </c>
       <c r="V40" t="n">
-        <v>183.0267431869954</v>
+        <v>183.0267431869955</v>
       </c>
       <c r="W40" t="n">
-        <v>217.4120981997584</v>
+        <v>217.4120981997585</v>
       </c>
       <c r="X40" t="n">
         <v>156.5987552522046</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.4737532152622</v>
+        <v>149.4737532152623</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>412.0127710247874</v>
       </c>
       <c r="H41" t="n">
-        <v>305.7814327964935</v>
+        <v>244.979980678385</v>
       </c>
       <c r="I41" t="n">
-        <v>22.83800433316674</v>
+        <v>83.63945645127521</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>95.23477517827249</v>
       </c>
       <c r="I42" t="n">
-        <v>28.79025133140684</v>
+        <v>28.79025133140683</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.7210800451047</v>
+        <v>110.7210800451048</v>
       </c>
       <c r="C43" t="n">
-        <v>98.13592096179528</v>
+        <v>98.13592096179529</v>
       </c>
       <c r="D43" t="n">
-        <v>79.5045728813798</v>
+        <v>79.50457288137981</v>
       </c>
       <c r="E43" t="n">
-        <v>77.32306250973662</v>
+        <v>77.32306250973663</v>
       </c>
       <c r="F43" t="n">
-        <v>76.31014788609869</v>
+        <v>76.3101478860987</v>
       </c>
       <c r="G43" t="n">
-        <v>97.40431351519769</v>
+        <v>97.4043135151977</v>
       </c>
       <c r="H43" t="n">
-        <v>79.99537363526983</v>
+        <v>79.99537363526984</v>
       </c>
       <c r="I43" t="n">
-        <v>41.95927518255718</v>
+        <v>41.95927518255719</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>217.1276329083986</v>
       </c>
       <c r="V43" t="n">
-        <v>183.0267431869954</v>
+        <v>183.0267431869955</v>
       </c>
       <c r="W43" t="n">
-        <v>217.4120981997584</v>
+        <v>217.4120981997585</v>
       </c>
       <c r="X43" t="n">
         <v>156.5987552522046</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.4737532152622</v>
+        <v>149.4737532152623</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.7814327964935</v>
       </c>
       <c r="I44" t="n">
-        <v>83.63945645127522</v>
+        <v>83.63945645127521</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>95.23477517827249</v>
       </c>
       <c r="I45" t="n">
-        <v>28.79025133140684</v>
+        <v>28.79025133140683</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.82669865856013</v>
+        <v>41.82669865856012</v>
       </c>
       <c r="S46" t="n">
         <v>129.1871264526536</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="C2" t="n">
-        <v>698.4535282668857</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="D2" t="n">
-        <v>432.5524838712628</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="E2" t="n">
-        <v>432.5524838712628</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="F2" t="n">
-        <v>166.65143947564</v>
+        <v>368.7078162010959</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800421</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4337,7 +4337,7 @@
         <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
         <v>785.5101925369327</v>
@@ -4355,25 +4355,25 @@
         <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="X2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="Y2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.7657853559551</v>
+        <v>376.8511278375176</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7657853559551</v>
+        <v>258.5718934766671</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8313756947039</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4410,49 +4410,49 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>30.73231659501204</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>271.3358444898745</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M3" t="n">
-        <v>531.9454581020244</v>
+        <v>655.5433744062259</v>
       </c>
       <c r="N3" t="n">
-        <v>792.5550717141743</v>
+        <v>916.1529880183758</v>
       </c>
       <c r="O3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="U3" t="n">
-        <v>824.7478070488712</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="V3" t="n">
-        <v>824.7478070488712</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="W3" t="n">
-        <v>824.7478070488712</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="X3" t="n">
-        <v>643.9811223760232</v>
+        <v>545.0664648575856</v>
       </c>
       <c r="Y3" t="n">
-        <v>643.9811223760232</v>
+        <v>545.0664648575856</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613333</v>
@@ -4522,16 +4522,16 @@
         <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>787.1037832399832</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="C5" t="n">
-        <v>787.1037832399832</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="D5" t="n">
-        <v>787.1037832399832</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="E5" t="n">
-        <v>787.1037832399832</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="F5" t="n">
+        <v>523.4729093258054</v>
+      </c>
+      <c r="G5" t="n">
         <v>508.1578098032605</v>
-      </c>
-      <c r="G5" t="n">
-        <v>229.2118363665377</v>
       </c>
       <c r="H5" t="n">
         <v>229.2118363665377</v>
@@ -4571,7 +4571,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
         <v>586.3582880173956</v>
@@ -4592,25 +4592,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S5" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T5" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U5" t="n">
-        <v>787.1037832399832</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
-        <v>787.1037832399832</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="W5" t="n">
-        <v>787.1037832399832</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="X5" t="n">
-        <v>787.1037832399832</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="Y5" t="n">
-        <v>787.1037832399832</v>
+        <v>530.4184100750089</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>232.8969991388428</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="C6" t="n">
-        <v>232.8969991388428</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="D6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K6" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6478494291521</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M6" t="n">
-        <v>679.042797994484</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N6" t="n">
-        <v>907.7419348121334</v>
+        <v>712.5889002841118</v>
       </c>
       <c r="O6" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T6" t="n">
-        <v>902.7461548375312</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U6" t="n">
-        <v>902.7461548375312</v>
+        <v>406.0782328537872</v>
       </c>
       <c r="V6" t="n">
-        <v>902.7461548375312</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="W6" t="n">
-        <v>648.5087981093295</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="X6" t="n">
-        <v>440.6572979037967</v>
+        <v>170.9261246220445</v>
       </c>
       <c r="Y6" t="n">
-        <v>232.8969991388428</v>
+        <v>170.9261246220445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K7" t="n">
         <v>22.09252109618844</v>
@@ -4756,19 +4756,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y7" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2434.152430754045</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2434.152430754045</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>2081.383775483931</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287635</v>
+        <v>1707.918017222851</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.649771680316</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.5811021474123</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>709.229566977652</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>709.229566977652</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U10" t="n">
-        <v>709.229566977652</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V10" t="n">
-        <v>709.229566977652</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W10" t="n">
-        <v>709.229566977652</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X10" t="n">
-        <v>709.229566977652</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.229566977652</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2400.911049815977</v>
+        <v>2400.911049815976</v>
       </c>
       <c r="C11" t="n">
-        <v>2036.042906755572</v>
+        <v>2036.042906755571</v>
       </c>
       <c r="D11" t="n">
-        <v>1681.871582028829</v>
+        <v>1681.871582028828</v>
       </c>
       <c r="E11" t="n">
         <v>1300.177703310592</v>
       </c>
       <c r="F11" t="n">
-        <v>893.2861724009922</v>
+        <v>893.2861724009915</v>
       </c>
       <c r="G11" t="n">
-        <v>481.2060300943456</v>
+        <v>481.2060300943451</v>
       </c>
       <c r="H11" t="n">
-        <v>176.4302698364808</v>
+        <v>176.4302698364807</v>
       </c>
       <c r="I11" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="J11" t="n">
         <v>360.6500232857379</v>
       </c>
       <c r="K11" t="n">
-        <v>877.9761433937639</v>
+        <v>877.9761433937647</v>
       </c>
       <c r="L11" t="n">
-        <v>1572.041568034716</v>
+        <v>1572.041568034717</v>
       </c>
       <c r="M11" t="n">
         <v>2360.929630510907</v>
@@ -5054,37 +5054,37 @@
         <v>3147.950729049227</v>
       </c>
       <c r="O11" t="n">
-        <v>3845.924797277445</v>
+        <v>3845.924797277444</v>
       </c>
       <c r="P11" t="n">
-        <v>4403.955133401911</v>
+        <v>4403.95513340191</v>
       </c>
       <c r="Q11" t="n">
-        <v>4745.790916325704</v>
+        <v>4745.790916325703</v>
       </c>
       <c r="R11" t="n">
-        <v>4802.017213537778</v>
+        <v>4802.017213537776</v>
       </c>
       <c r="S11" t="n">
-        <v>4670.707589248647</v>
+        <v>4670.707589248645</v>
       </c>
       <c r="T11" t="n">
-        <v>4463.999921459327</v>
+        <v>4463.999921459324</v>
       </c>
       <c r="U11" t="n">
-        <v>4214.475653330638</v>
+        <v>4214.475653330636</v>
       </c>
       <c r="V11" t="n">
-        <v>3887.507139867075</v>
+        <v>3887.507139867073</v>
       </c>
       <c r="W11" t="n">
-        <v>3538.832858476968</v>
+        <v>3538.832858476967</v>
       </c>
       <c r="X11" t="n">
         <v>3169.461474095895</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.416516000091</v>
+        <v>2783.41651600009</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>504.8054642776639</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2709063045488</v>
+        <v>358.2709063045489</v>
       </c>
       <c r="G12" t="n">
         <v>221.3181488259872</v>
@@ -5115,28 +5115,28 @@
         <v>125.1214062216716</v>
       </c>
       <c r="I12" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="J12" t="n">
-        <v>135.1165516642934</v>
+        <v>259.946676651298</v>
       </c>
       <c r="K12" t="n">
-        <v>519.0093118324115</v>
+        <v>666.7095484209724</v>
       </c>
       <c r="L12" t="n">
-        <v>1127.356586869745</v>
+        <v>907.9248816078812</v>
       </c>
       <c r="M12" t="n">
-        <v>1428.200371478892</v>
+        <v>1208.768666217028</v>
       </c>
       <c r="N12" t="n">
-        <v>1751.41524079377</v>
+        <v>1531.983535531906</v>
       </c>
       <c r="O12" t="n">
-        <v>2024.873905868003</v>
+        <v>1816.897391009512</v>
       </c>
       <c r="P12" t="n">
-        <v>2540.29366784211</v>
+        <v>2332.317152983619</v>
       </c>
       <c r="Q12" t="n">
         <v>2624.163844806596</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.5583681403466</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="C13" t="n">
-        <v>242.5583681403466</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="D13" t="n">
-        <v>242.5583681403466</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="E13" t="n">
-        <v>242.5583681403466</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="F13" t="n">
-        <v>242.5583681403466</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="G13" t="n">
-        <v>242.5583681403466</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="H13" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="I13" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="J13" t="n">
         <v>110.920920885096</v>
       </c>
       <c r="K13" t="n">
-        <v>262.6295913706753</v>
+        <v>262.6295913706754</v>
       </c>
       <c r="L13" t="n">
-        <v>511.1686634845713</v>
+        <v>511.1686634845714</v>
       </c>
       <c r="M13" t="n">
         <v>783.3892502001111</v>
@@ -5221,28 +5221,28 @@
         <v>1508.599019683594</v>
       </c>
       <c r="R13" t="n">
-        <v>1508.599019683594</v>
+        <v>1400.635212962195</v>
       </c>
       <c r="S13" t="n">
-        <v>1508.599019683594</v>
+        <v>1204.428549883125</v>
       </c>
       <c r="T13" t="n">
-        <v>1288.814560183532</v>
+        <v>984.6440903830633</v>
       </c>
       <c r="U13" t="n">
-        <v>1003.77910270472</v>
+        <v>699.6086329042514</v>
       </c>
       <c r="V13" t="n">
-        <v>922.133460511055</v>
+        <v>605.2583174457186</v>
       </c>
       <c r="W13" t="n">
-        <v>636.8106643541017</v>
+        <v>319.9355212887654</v>
       </c>
       <c r="X13" t="n">
-        <v>636.8106643541017</v>
+        <v>96.04034427075553</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.112459090579</v>
+        <v>96.04034427075553</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2400.911049815976</v>
       </c>
       <c r="C14" t="n">
-        <v>2036.042906755572</v>
+        <v>2036.042906755571</v>
       </c>
       <c r="D14" t="n">
-        <v>1681.87158202883</v>
+        <v>1681.871582028828</v>
       </c>
       <c r="E14" t="n">
-        <v>1300.177703310593</v>
+        <v>1300.177703310592</v>
       </c>
       <c r="F14" t="n">
-        <v>893.2861724009924</v>
+        <v>893.2861724009916</v>
       </c>
       <c r="G14" t="n">
         <v>481.2060300943458</v>
@@ -5276,22 +5276,22 @@
         <v>96.04034427075554</v>
       </c>
       <c r="J14" t="n">
-        <v>360.6500232857372</v>
+        <v>360.6500232857397</v>
       </c>
       <c r="K14" t="n">
-        <v>877.9761433937633</v>
+        <v>877.9761433937655</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.041568034715</v>
+        <v>1572.041568034717</v>
       </c>
       <c r="M14" t="n">
-        <v>2360.929630510906</v>
+        <v>2360.929630510908</v>
       </c>
       <c r="N14" t="n">
-        <v>3147.950729049226</v>
+        <v>3147.950729049227</v>
       </c>
       <c r="O14" t="n">
-        <v>3845.924797277444</v>
+        <v>3845.924797277445</v>
       </c>
       <c r="P14" t="n">
         <v>4403.95513340191</v>
@@ -5303,13 +5303,13 @@
         <v>4802.017213537777</v>
       </c>
       <c r="S14" t="n">
-        <v>4670.707589248646</v>
+        <v>4670.707589248645</v>
       </c>
       <c r="T14" t="n">
-        <v>4463.999921459326</v>
+        <v>4463.999921459325</v>
       </c>
       <c r="U14" t="n">
-        <v>4214.475653330638</v>
+        <v>4214.475653330637</v>
       </c>
       <c r="V14" t="n">
         <v>3887.507139867074</v>
@@ -5321,7 +5321,7 @@
         <v>3169.461474095895</v>
       </c>
       <c r="Y14" t="n">
-        <v>2783.416516000091</v>
+        <v>2783.41651600009</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8054642776639</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2709063045488</v>
+        <v>358.2709063045489</v>
       </c>
       <c r="G15" t="n">
         <v>221.3181488259872</v>
       </c>
       <c r="H15" t="n">
-        <v>125.1214062216715</v>
+        <v>125.1214062216716</v>
       </c>
       <c r="I15" t="n">
         <v>96.04034427075554</v>
       </c>
       <c r="J15" t="n">
-        <v>135.1165516642934</v>
+        <v>135.1165516642933</v>
       </c>
       <c r="K15" t="n">
-        <v>280.0588387915152</v>
+        <v>280.0588387915149</v>
       </c>
       <c r="L15" t="n">
-        <v>521.2741719784242</v>
+        <v>844.7345168808313</v>
       </c>
       <c r="M15" t="n">
-        <v>822.1179565875708</v>
+        <v>1145.578301489978</v>
       </c>
       <c r="N15" t="n">
-        <v>1619.881776502567</v>
+        <v>1468.793170804855</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.264137660762</v>
+        <v>2132.17553196305</v>
       </c>
       <c r="P15" t="n">
-        <v>2483.405758681331</v>
+        <v>2332.31715298362</v>
       </c>
       <c r="Q15" t="n">
         <v>2624.163844806596</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.8821533186551</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="C16" t="n">
         <v>96.04034427075554</v>
@@ -5440,10 +5440,10 @@
         <v>262.6295913706753</v>
       </c>
       <c r="L16" t="n">
-        <v>511.1686634845714</v>
+        <v>511.1686634845713</v>
       </c>
       <c r="M16" t="n">
-        <v>783.3892502001113</v>
+        <v>783.389250200111</v>
       </c>
       <c r="N16" t="n">
         <v>1054.667073922144</v>
@@ -5455,31 +5455,31 @@
         <v>1467.547045365759</v>
       </c>
       <c r="Q16" t="n">
-        <v>1508.599019683595</v>
+        <v>1508.599019683594</v>
       </c>
       <c r="R16" t="n">
-        <v>1508.599019683595</v>
+        <v>1508.599019683594</v>
       </c>
       <c r="S16" t="n">
-        <v>1508.599019683595</v>
+        <v>1312.392356604525</v>
       </c>
       <c r="T16" t="n">
-        <v>1508.599019683595</v>
+        <v>1092.607897104462</v>
       </c>
       <c r="U16" t="n">
-        <v>1223.563562204783</v>
+        <v>807.5724396256505</v>
       </c>
       <c r="V16" t="n">
-        <v>972.973447878903</v>
+        <v>556.9823252997711</v>
       </c>
       <c r="W16" t="n">
-        <v>687.6506517219498</v>
+        <v>271.6595291428179</v>
       </c>
       <c r="X16" t="n">
-        <v>655.1344495324101</v>
+        <v>271.6595291428179</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.4362442688874</v>
+        <v>271.6595291428179</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>2036.042906755572</v>
       </c>
       <c r="D17" t="n">
-        <v>1681.87158202883</v>
+        <v>1681.871582028829</v>
       </c>
       <c r="E17" t="n">
-        <v>1300.177703310593</v>
+        <v>1300.177703310592</v>
       </c>
       <c r="F17" t="n">
-        <v>893.2861724009924</v>
+        <v>893.2861724009922</v>
       </c>
       <c r="G17" t="n">
-        <v>481.2060300943458</v>
+        <v>481.2060300943454</v>
       </c>
       <c r="H17" t="n">
         <v>176.4302698364808</v>
       </c>
       <c r="I17" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J17" t="n">
-        <v>360.6500232857388</v>
+        <v>360.6500232857377</v>
       </c>
       <c r="K17" t="n">
-        <v>877.9761433937647</v>
+        <v>877.9761433937634</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.041568034716</v>
+        <v>1572.041568034715</v>
       </c>
       <c r="M17" t="n">
-        <v>2360.929630510907</v>
+        <v>2360.929630510906</v>
       </c>
       <c r="N17" t="n">
         <v>3147.950729049227</v>
@@ -5531,13 +5531,13 @@
         <v>3845.924797277445</v>
       </c>
       <c r="P17" t="n">
-        <v>4403.955133401911</v>
+        <v>4403.95513340191</v>
       </c>
       <c r="Q17" t="n">
-        <v>4745.790916325704</v>
+        <v>4745.790916325703</v>
       </c>
       <c r="R17" t="n">
-        <v>4802.017213537778</v>
+        <v>4802.017213537777</v>
       </c>
       <c r="S17" t="n">
         <v>4670.707589248646</v>
@@ -5580,37 +5580,37 @@
         <v>504.8054642776639</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2709063045488</v>
+        <v>358.2709063045489</v>
       </c>
       <c r="G18" t="n">
         <v>221.3181488259872</v>
       </c>
       <c r="H18" t="n">
-        <v>125.1214062216715</v>
+        <v>125.1214062216716</v>
       </c>
       <c r="I18" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J18" t="n">
-        <v>219.5480661577841</v>
+        <v>135.1165516642933</v>
       </c>
       <c r="K18" t="n">
-        <v>626.3109379274587</v>
+        <v>280.0588387915149</v>
       </c>
       <c r="L18" t="n">
-        <v>1234.658212964792</v>
+        <v>521.2741719784236</v>
       </c>
       <c r="M18" t="n">
-        <v>1535.501997573939</v>
+        <v>1060.953046973822</v>
       </c>
       <c r="N18" t="n">
-        <v>1858.716866888817</v>
+        <v>1858.716866888818</v>
       </c>
       <c r="O18" t="n">
         <v>2132.17553196305</v>
       </c>
       <c r="P18" t="n">
-        <v>2332.317152983619</v>
+        <v>2332.31715298362</v>
       </c>
       <c r="Q18" t="n">
         <v>2624.163844806596</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>532.0927269192284</v>
+        <v>116.388943018238</v>
       </c>
       <c r="C19" t="n">
-        <v>406.6611797674405</v>
+        <v>116.388943018238</v>
       </c>
       <c r="D19" t="n">
-        <v>406.6611797674405</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="E19" t="n">
-        <v>406.6611797674405</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="F19" t="n">
-        <v>406.6611797674405</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="G19" t="n">
-        <v>242.5583681403466</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="H19" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="I19" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J19" t="n">
-        <v>110.920920885096</v>
+        <v>110.9209208850959</v>
       </c>
       <c r="K19" t="n">
-        <v>262.6295913706753</v>
+        <v>262.6295913706751</v>
       </c>
       <c r="L19" t="n">
-        <v>511.1686634845713</v>
+        <v>511.1686634845712</v>
       </c>
       <c r="M19" t="n">
-        <v>783.3892502001111</v>
+        <v>783.3892502001108</v>
       </c>
       <c r="N19" t="n">
         <v>1054.667073922144</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.526093228794</v>
+        <v>1289.526093228793</v>
       </c>
       <c r="P19" t="n">
-        <v>1467.547045365759</v>
+        <v>1467.547045365758</v>
       </c>
       <c r="Q19" t="n">
         <v>1508.599019683594</v>
@@ -5698,25 +5698,25 @@
         <v>1508.599019683594</v>
       </c>
       <c r="S19" t="n">
-        <v>1508.599019683594</v>
+        <v>1312.392356604524</v>
       </c>
       <c r="T19" t="n">
-        <v>1508.599019683594</v>
+        <v>1092.607897104462</v>
       </c>
       <c r="U19" t="n">
-        <v>1508.599019683594</v>
+        <v>807.5724396256502</v>
       </c>
       <c r="V19" t="n">
-        <v>1258.008905357714</v>
+        <v>556.9823252997708</v>
       </c>
       <c r="W19" t="n">
-        <v>972.6861092007612</v>
+        <v>556.9823252997708</v>
       </c>
       <c r="X19" t="n">
-        <v>748.7909321827511</v>
+        <v>333.0871482817608</v>
       </c>
       <c r="Y19" t="n">
-        <v>532.0927269192284</v>
+        <v>116.388943018238</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2400.911049815977</v>
+        <v>2400.911049815976</v>
       </c>
       <c r="C20" t="n">
         <v>2036.042906755572</v>
@@ -5738,58 +5738,58 @@
         <v>1300.177703310592</v>
       </c>
       <c r="F20" t="n">
-        <v>893.2861724009922</v>
+        <v>893.286172400992</v>
       </c>
       <c r="G20" t="n">
-        <v>481.2060300943456</v>
+        <v>481.2060300943455</v>
       </c>
       <c r="H20" t="n">
-        <v>176.4302698364808</v>
+        <v>176.4302698364807</v>
       </c>
       <c r="I20" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J20" t="n">
         <v>360.6500232857379</v>
       </c>
       <c r="K20" t="n">
-        <v>877.9761433937642</v>
+        <v>877.976143393764</v>
       </c>
       <c r="L20" t="n">
         <v>1572.041568034716</v>
       </c>
       <c r="M20" t="n">
-        <v>2360.929630510907</v>
+        <v>2360.929630510906</v>
       </c>
       <c r="N20" t="n">
         <v>3147.950729049227</v>
       </c>
       <c r="O20" t="n">
-        <v>3845.924797277445</v>
+        <v>3845.924797277444</v>
       </c>
       <c r="P20" t="n">
-        <v>4403.955133401911</v>
+        <v>4403.95513340191</v>
       </c>
       <c r="Q20" t="n">
-        <v>4745.790916325704</v>
+        <v>4745.790916325703</v>
       </c>
       <c r="R20" t="n">
-        <v>4802.017213537778</v>
+        <v>4802.017213537777</v>
       </c>
       <c r="S20" t="n">
-        <v>4670.707589248647</v>
+        <v>4670.707589248645</v>
       </c>
       <c r="T20" t="n">
-        <v>4463.999921459327</v>
+        <v>4463.999921459325</v>
       </c>
       <c r="U20" t="n">
-        <v>4214.475653330639</v>
+        <v>4214.475653330637</v>
       </c>
       <c r="V20" t="n">
-        <v>3887.507139867075</v>
+        <v>3887.507139867074</v>
       </c>
       <c r="W20" t="n">
-        <v>3538.832858476968</v>
+        <v>3538.832858476967</v>
       </c>
       <c r="X20" t="n">
         <v>3169.461474095895</v>
@@ -5826,31 +5826,31 @@
         <v>125.1214062216715</v>
       </c>
       <c r="I21" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J21" t="n">
-        <v>259.9466766512982</v>
+        <v>135.1165516642934</v>
       </c>
       <c r="K21" t="n">
-        <v>666.7095484209727</v>
+        <v>280.0588387915152</v>
       </c>
       <c r="L21" t="n">
-        <v>919.3800720112544</v>
+        <v>888.4061138288488</v>
       </c>
       <c r="M21" t="n">
-        <v>1220.223856620401</v>
+        <v>1189.249898437995</v>
       </c>
       <c r="N21" t="n">
-        <v>1543.438725935279</v>
+        <v>1512.464767752874</v>
       </c>
       <c r="O21" t="n">
-        <v>1816.897391009512</v>
+        <v>2175.847128911068</v>
       </c>
       <c r="P21" t="n">
-        <v>2332.317152983619</v>
+        <v>2531.250624617651</v>
       </c>
       <c r="Q21" t="n">
-        <v>2624.163844806596</v>
+        <v>2615.120801582138</v>
       </c>
       <c r="R21" t="n">
         <v>2624.163844806596</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>242.062609803084</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="C22" t="n">
-        <v>242.062609803084</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="D22" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="E22" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="F22" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="G22" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="H22" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="I22" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J22" t="n">
-        <v>110.920920885096</v>
+        <v>110.9209208850961</v>
       </c>
       <c r="K22" t="n">
-        <v>262.6295913706752</v>
+        <v>262.6295913706755</v>
       </c>
       <c r="L22" t="n">
-        <v>511.1686634845713</v>
+        <v>511.1686634845716</v>
       </c>
       <c r="M22" t="n">
-        <v>783.3892502001111</v>
+        <v>783.3892502001115</v>
       </c>
       <c r="N22" t="n">
         <v>1054.667073922144</v>
       </c>
       <c r="O22" t="n">
-        <v>1289.526093228794</v>
+        <v>1289.526093228795</v>
       </c>
       <c r="P22" t="n">
-        <v>1467.547045365758</v>
+        <v>1467.547045365759</v>
       </c>
       <c r="Q22" t="n">
-        <v>1508.599019683594</v>
+        <v>1508.599019683595</v>
       </c>
       <c r="R22" t="n">
-        <v>1508.599019683594</v>
+        <v>1508.599019683595</v>
       </c>
       <c r="S22" t="n">
-        <v>1312.392356604524</v>
+        <v>1312.392356604526</v>
       </c>
       <c r="T22" t="n">
-        <v>1279.709183028251</v>
+        <v>1092.607897104464</v>
       </c>
       <c r="U22" t="n">
-        <v>994.6737255494395</v>
+        <v>807.5724396256514</v>
       </c>
       <c r="V22" t="n">
-        <v>744.08361122356</v>
+        <v>556.982325299772</v>
       </c>
       <c r="W22" t="n">
-        <v>458.7608150666068</v>
+        <v>556.982325299772</v>
       </c>
       <c r="X22" t="n">
-        <v>458.7608150666068</v>
+        <v>490.2926404845105</v>
       </c>
       <c r="Y22" t="n">
-        <v>242.062609803084</v>
+        <v>273.5944352209878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2386.320862276419</v>
+        <v>2368.156058775918</v>
       </c>
       <c r="C23" t="n">
-        <v>2017.358345336007</v>
+        <v>1999.193541835506</v>
       </c>
       <c r="D23" t="n">
-        <v>1666.013844427865</v>
+        <v>1659.092646729256</v>
       </c>
       <c r="E23" t="n">
-        <v>1298.390395330121</v>
+        <v>1291.469197631512</v>
       </c>
       <c r="F23" t="n">
-        <v>887.404490540514</v>
+        <v>880.4832928419046</v>
       </c>
       <c r="G23" t="n">
         <v>471.22997435386</v>
       </c>
       <c r="H23" t="n">
-        <v>162.3598402159878</v>
+        <v>180.5246437164881</v>
       </c>
       <c r="I23" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J23" t="n">
-        <v>360.6500232857384</v>
+        <v>360.6500232857379</v>
       </c>
       <c r="K23" t="n">
-        <v>877.9761433937642</v>
+        <v>877.976143393764</v>
       </c>
       <c r="L23" t="n">
         <v>1572.041568034716</v>
@@ -6005,34 +6005,34 @@
         <v>3845.924797277445</v>
       </c>
       <c r="P23" t="n">
-        <v>4403.955133401911</v>
+        <v>4403.95513340191</v>
       </c>
       <c r="Q23" t="n">
-        <v>4745.790916325704</v>
+        <v>4745.790916325703</v>
       </c>
       <c r="R23" t="n">
-        <v>4802.017213537778</v>
+        <v>4802.017213537777</v>
       </c>
       <c r="S23" t="n">
-        <v>4684.77801886914</v>
+        <v>4666.613215368639</v>
       </c>
       <c r="T23" t="n">
-        <v>4473.975977199813</v>
+        <v>4455.811173699312</v>
       </c>
       <c r="U23" t="n">
-        <v>4220.357335191117</v>
+        <v>4202.192531690616</v>
       </c>
       <c r="V23" t="n">
-        <v>3889.294447847547</v>
+        <v>3871.129644347046</v>
       </c>
       <c r="W23" t="n">
-        <v>3536.525792577432</v>
+        <v>3518.360989076931</v>
       </c>
       <c r="X23" t="n">
-        <v>3163.060034316352</v>
+        <v>3144.895230815851</v>
       </c>
       <c r="Y23" t="n">
-        <v>2772.920702340541</v>
+        <v>2754.75589884004</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.1214062216715</v>
       </c>
       <c r="I24" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J24" t="n">
-        <v>135.1165516642934</v>
+        <v>259.9466766512982</v>
       </c>
       <c r="K24" t="n">
-        <v>280.0588387915152</v>
+        <v>404.88896377852</v>
       </c>
       <c r="L24" t="n">
-        <v>888.4061138288488</v>
+        <v>1013.236238815854</v>
       </c>
       <c r="M24" t="n">
-        <v>1189.249898437995</v>
+        <v>1314.080023425</v>
       </c>
       <c r="N24" t="n">
-        <v>1512.464767752874</v>
+        <v>1742.372197569311</v>
       </c>
       <c r="O24" t="n">
-        <v>2175.847128911068</v>
+        <v>2015.830862643544</v>
       </c>
       <c r="P24" t="n">
-        <v>2540.29366784211</v>
+        <v>2531.250624617651</v>
       </c>
       <c r="Q24" t="n">
-        <v>2624.163844806596</v>
+        <v>2615.120801582138</v>
       </c>
       <c r="R24" t="n">
         <v>2624.163844806596</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>470.987673942481</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="C25" t="n">
-        <v>470.987673942481</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="D25" t="n">
-        <v>339.0358380306457</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="E25" t="n">
-        <v>339.0358380306457</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="F25" t="n">
-        <v>210.310694033236</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="G25" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="H25" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="I25" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075554</v>
       </c>
       <c r="J25" t="n">
-        <v>124.7113489561412</v>
+        <v>124.7113489561411</v>
       </c>
       <c r="K25" t="n">
-        <v>290.2104475127657</v>
+        <v>290.2104475127655</v>
       </c>
       <c r="L25" t="n">
-        <v>552.5399476977069</v>
+        <v>552.5399476977068</v>
       </c>
       <c r="M25" t="n">
-        <v>838.5509624842917</v>
+        <v>838.5509624842919</v>
       </c>
       <c r="N25" t="n">
         <v>1123.61921427737</v>
@@ -6172,25 +6172,25 @@
         <v>1618.922444251956</v>
       </c>
       <c r="S25" t="n">
-        <v>1618.922444251956</v>
+        <v>1436.786210793379</v>
       </c>
       <c r="T25" t="n">
-        <v>1413.208414372386</v>
+        <v>1231.07218091381</v>
       </c>
       <c r="U25" t="n">
-        <v>1142.243386514067</v>
+        <v>960.1071530554907</v>
       </c>
       <c r="V25" t="n">
-        <v>905.7237018086806</v>
+        <v>723.5874683501041</v>
       </c>
       <c r="W25" t="n">
-        <v>634.4713352722204</v>
+        <v>671.9765286410418</v>
       </c>
       <c r="X25" t="n">
-        <v>634.4713352722204</v>
+        <v>462.1517812435247</v>
       </c>
       <c r="Y25" t="n">
-        <v>634.4713352722204</v>
+        <v>259.5240056004949</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2382.22648839641</v>
+        <v>2382.226488396412</v>
       </c>
       <c r="C26" t="n">
-        <v>2013.263971455998</v>
+        <v>2013.263971456</v>
       </c>
       <c r="D26" t="n">
-        <v>1660.132162567387</v>
+        <v>1654.99827284925</v>
       </c>
       <c r="E26" t="n">
-        <v>1288.414339589636</v>
+        <v>1274.343909969143</v>
       </c>
       <c r="F26" t="n">
-        <v>891.4988644205213</v>
+        <v>877.4284348000285</v>
       </c>
       <c r="G26" t="n">
-        <v>489.3947778543603</v>
+        <v>475.3243482338675</v>
       </c>
       <c r="H26" t="n">
-        <v>180.5246437164881</v>
+        <v>166.4542140959952</v>
       </c>
       <c r="I26" t="n">
-        <v>96.04034427075554</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="J26" t="n">
         <v>360.6500232857379</v>
       </c>
       <c r="K26" t="n">
-        <v>877.976143393764</v>
+        <v>877.9761433937642</v>
       </c>
       <c r="L26" t="n">
         <v>1572.041568034716</v>
       </c>
       <c r="M26" t="n">
-        <v>2360.929630510906</v>
+        <v>2360.929630510908</v>
       </c>
       <c r="N26" t="n">
-        <v>3147.950729049227</v>
+        <v>3147.950729049228</v>
       </c>
       <c r="O26" t="n">
-        <v>3845.924797277444</v>
+        <v>3845.924797277445</v>
       </c>
       <c r="P26" t="n">
-        <v>4403.95513340191</v>
+        <v>4403.955133401911</v>
       </c>
       <c r="Q26" t="n">
-        <v>4745.790916325703</v>
+        <v>4745.790916325704</v>
       </c>
       <c r="R26" t="n">
-        <v>4802.017213537777</v>
+        <v>4802.017213537778</v>
       </c>
       <c r="S26" t="n">
-        <v>4666.613215368639</v>
+        <v>4666.61321536864</v>
       </c>
       <c r="T26" t="n">
-        <v>4469.881603319805</v>
+        <v>4455.811173699313</v>
       </c>
       <c r="U26" t="n">
-        <v>4216.262961311108</v>
+        <v>4202.192531690617</v>
       </c>
       <c r="V26" t="n">
-        <v>3885.200073967538</v>
+        <v>3871.129644347046</v>
       </c>
       <c r="W26" t="n">
-        <v>3532.431418697423</v>
+        <v>3532.431418697425</v>
       </c>
       <c r="X26" t="n">
-        <v>3158.965660436344</v>
+        <v>3158.965660436345</v>
       </c>
       <c r="Y26" t="n">
-        <v>2768.826328460532</v>
+        <v>2768.826328460534</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.1214062216715</v>
       </c>
       <c r="I27" t="n">
-        <v>96.04034427075554</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="J27" t="n">
         <v>135.1165516642934</v>
@@ -6309,22 +6309,22 @@
         <v>280.0588387915152</v>
       </c>
       <c r="L27" t="n">
-        <v>737.4328907857829</v>
+        <v>728.3898475613245</v>
       </c>
       <c r="M27" t="n">
-        <v>1038.276675394929</v>
+        <v>1029.233632170471</v>
       </c>
       <c r="N27" t="n">
-        <v>1361.491544709808</v>
+        <v>1352.448501485349</v>
       </c>
       <c r="O27" t="n">
-        <v>2024.873905868003</v>
+        <v>2015.830862643544</v>
       </c>
       <c r="P27" t="n">
-        <v>2540.29366784211</v>
+        <v>2531.250624617651</v>
       </c>
       <c r="Q27" t="n">
-        <v>2624.163844806596</v>
+        <v>2615.120801582138</v>
       </c>
       <c r="R27" t="n">
         <v>2624.163844806596</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8409444177212</v>
+        <v>250.9060975781696</v>
       </c>
       <c r="C28" t="n">
-        <v>185.8409444177212</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="D28" t="n">
-        <v>185.8409444177212</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="E28" t="n">
-        <v>185.8409444177212</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="F28" t="n">
-        <v>185.8409444177212</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="G28" t="n">
-        <v>96.04034427075554</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="H28" t="n">
-        <v>96.04034427075554</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="I28" t="n">
-        <v>96.04034427075554</v>
+        <v>96.04034427075555</v>
       </c>
       <c r="J28" t="n">
-        <v>120.6984531163459</v>
+        <v>120.6984531163458</v>
       </c>
       <c r="K28" t="n">
-        <v>282.1846558331751</v>
+        <v>282.1846558331749</v>
       </c>
       <c r="L28" t="n">
-        <v>540.5012601783211</v>
+        <v>540.5012601783209</v>
       </c>
       <c r="M28" t="n">
-        <v>822.4993791251107</v>
+        <v>822.4993791251105</v>
       </c>
       <c r="N28" t="n">
-        <v>1103.554735078394</v>
+        <v>1103.554735078393</v>
       </c>
       <c r="O28" t="n">
-        <v>1348.191286616294</v>
+        <v>1348.191286616293</v>
       </c>
       <c r="P28" t="n">
         <v>1535.989770984508</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.819277533594</v>
+        <v>1586.819277533593</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.819277533594</v>
+        <v>1586.819277533593</v>
       </c>
       <c r="S28" t="n">
-        <v>1400.58867019501</v>
+        <v>1400.588670195009</v>
       </c>
       <c r="T28" t="n">
-        <v>1190.780266435434</v>
+        <v>1190.780266435432</v>
       </c>
       <c r="U28" t="n">
-        <v>915.7208646971071</v>
+        <v>915.7208646971058</v>
       </c>
       <c r="V28" t="n">
-        <v>675.1068061117132</v>
+        <v>675.1068061117119</v>
       </c>
       <c r="W28" t="n">
-        <v>399.7600656952455</v>
+        <v>671.5473683787313</v>
       </c>
       <c r="X28" t="n">
-        <v>185.8409444177212</v>
+        <v>457.6282471012069</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.8409444177212</v>
+        <v>250.9060975781696</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2410.367347637397</v>
+        <v>2396.296918016904</v>
       </c>
       <c r="C29" t="n">
-        <v>2041.404830696985</v>
+        <v>2027.334401076492</v>
       </c>
       <c r="D29" t="n">
-        <v>1697.209561710728</v>
+        <v>1683.139132090235</v>
       </c>
       <c r="E29" t="n">
-        <v>1311.421309112483</v>
+        <v>1302.484769210129</v>
       </c>
       <c r="F29" t="n">
-        <v>900.4354043228759</v>
+        <v>905.5692940410142</v>
       </c>
       <c r="G29" t="n">
         <v>489.3947778543604</v>
@@ -6461,7 +6461,7 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J29" t="n">
-        <v>360.6500232857379</v>
+        <v>360.6500232857384</v>
       </c>
       <c r="K29" t="n">
         <v>877.9761433937642</v>
@@ -6470,10 +6470,10 @@
         <v>1572.041568034716</v>
       </c>
       <c r="M29" t="n">
-        <v>2360.929630510907</v>
+        <v>2360.929630510908</v>
       </c>
       <c r="N29" t="n">
-        <v>3147.950729049227</v>
+        <v>3147.950729049228</v>
       </c>
       <c r="O29" t="n">
         <v>3845.924797277445</v>
@@ -6488,7 +6488,7 @@
         <v>4802.017213537778</v>
       </c>
       <c r="S29" t="n">
-        <v>4666.61321536864</v>
+        <v>4680.683644989133</v>
       </c>
       <c r="T29" t="n">
         <v>4469.881603319805</v>
@@ -6503,10 +6503,10 @@
         <v>3532.431418697424</v>
       </c>
       <c r="X29" t="n">
-        <v>3173.036090056838</v>
+        <v>3158.965660436344</v>
       </c>
       <c r="Y29" t="n">
-        <v>2796.967187701519</v>
+        <v>2768.826328460533</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J30" t="n">
-        <v>259.9466766512982</v>
+        <v>135.1165516642934</v>
       </c>
       <c r="K30" t="n">
-        <v>404.88896377852</v>
+        <v>280.0588387915152</v>
       </c>
       <c r="L30" t="n">
-        <v>646.1042969654289</v>
+        <v>764.5671566278338</v>
       </c>
       <c r="M30" t="n">
-        <v>1407.996094687076</v>
+        <v>1526.45895434948</v>
       </c>
       <c r="N30" t="n">
-        <v>2066.693381747307</v>
+        <v>1849.673823664358</v>
       </c>
       <c r="O30" t="n">
-        <v>2340.15204682154</v>
+        <v>2123.132488738591</v>
       </c>
       <c r="P30" t="n">
-        <v>2540.29366784211</v>
+        <v>2323.274109759161</v>
       </c>
       <c r="Q30" t="n">
-        <v>2624.163844806596</v>
+        <v>2615.120801582138</v>
       </c>
       <c r="R30" t="n">
         <v>2624.163844806596</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>250.9060975781695</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="C31" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="D31" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="E31" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="F31" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="G31" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="H31" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="I31" t="n">
-        <v>96.04034427075555</v>
+        <v>96.04034427075558</v>
       </c>
       <c r="J31" t="n">
-        <v>120.6984531163459</v>
+        <v>120.6984531163458</v>
       </c>
       <c r="K31" t="n">
-        <v>282.1846558331752</v>
+        <v>282.1846558331751</v>
       </c>
       <c r="L31" t="n">
-        <v>540.5012601783212</v>
+        <v>540.501260178321</v>
       </c>
       <c r="M31" t="n">
-        <v>822.499379125111</v>
+        <v>822.4993791251106</v>
       </c>
       <c r="N31" t="n">
-        <v>1103.554735078394</v>
+        <v>1103.554735078393</v>
       </c>
       <c r="O31" t="n">
-        <v>1348.191286616294</v>
+        <v>1348.191286616293</v>
       </c>
       <c r="P31" t="n">
-        <v>1535.989770984509</v>
+        <v>1535.989770984508</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.819277533594</v>
+        <v>1586.819277533593</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.819277533594</v>
+        <v>1586.819277533593</v>
       </c>
       <c r="S31" t="n">
-        <v>1400.58867019501</v>
+        <v>1400.588670195009</v>
       </c>
       <c r="T31" t="n">
-        <v>1400.58867019501</v>
+        <v>1190.780266435432</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.086202590339</v>
+        <v>915.720864697106</v>
       </c>
       <c r="V31" t="n">
-        <v>1114.472144004945</v>
+        <v>675.1068061117119</v>
       </c>
       <c r="W31" t="n">
-        <v>839.1254035884778</v>
+        <v>399.7600656952442</v>
       </c>
       <c r="X31" t="n">
-        <v>625.2062823109534</v>
+        <v>185.8409444177197</v>
       </c>
       <c r="Y31" t="n">
-        <v>418.4841327879162</v>
+        <v>185.8409444177197</v>
       </c>
     </row>
     <row r="32">
@@ -6698,7 +6698,7 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J32" t="n">
-        <v>360.6500232857384</v>
+        <v>360.6500232857379</v>
       </c>
       <c r="K32" t="n">
         <v>877.9761433937642</v>
@@ -6707,10 +6707,10 @@
         <v>1572.041568034716</v>
       </c>
       <c r="M32" t="n">
-        <v>2360.929630510907</v>
+        <v>2360.929630510908</v>
       </c>
       <c r="N32" t="n">
-        <v>3147.950729049227</v>
+        <v>3147.950729049228</v>
       </c>
       <c r="O32" t="n">
         <v>3845.924797277445</v>
@@ -6725,25 +6725,25 @@
         <v>4802.017213537778</v>
       </c>
       <c r="S32" t="n">
-        <v>4728.028823568749</v>
+        <v>4666.61321536864</v>
       </c>
       <c r="T32" t="n">
-        <v>4517.226781899422</v>
+        <v>4455.811173699313</v>
       </c>
       <c r="U32" t="n">
-        <v>4263.608139890726</v>
+        <v>4202.192531690617</v>
       </c>
       <c r="V32" t="n">
-        <v>3932.545252547156</v>
+        <v>3871.129644347046</v>
       </c>
       <c r="W32" t="n">
-        <v>3579.776597277042</v>
+        <v>3518.360989076932</v>
       </c>
       <c r="X32" t="n">
-        <v>3206.310839015962</v>
+        <v>3144.895230815852</v>
       </c>
       <c r="Y32" t="n">
-        <v>2816.17150704015</v>
+        <v>2754.755898840041</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J33" t="n">
-        <v>135.1165516642934</v>
+        <v>259.9466766512982</v>
       </c>
       <c r="K33" t="n">
-        <v>280.0588387915152</v>
+        <v>404.88896377852</v>
       </c>
       <c r="L33" t="n">
-        <v>737.4328907857829</v>
+        <v>646.1042969654289</v>
       </c>
       <c r="M33" t="n">
-        <v>1038.276675394929</v>
+        <v>953.6514208787735</v>
       </c>
       <c r="N33" t="n">
-        <v>1361.491544709808</v>
+        <v>1751.41524079377</v>
       </c>
       <c r="O33" t="n">
         <v>2024.873905868003</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>652.234956969781</v>
+        <v>652.2349569697808</v>
       </c>
       <c r="C34" t="n">
-        <v>553.1077640790787</v>
+        <v>553.1077640790785</v>
       </c>
       <c r="D34" t="n">
-        <v>472.8001147039476</v>
+        <v>472.8001147039474</v>
       </c>
       <c r="E34" t="n">
-        <v>394.6960111587591</v>
+        <v>394.6960111587589</v>
       </c>
       <c r="F34" t="n">
         <v>317.6150536980532</v>
@@ -6877,10 +6877,10 @@
         <v>1918.395312435442</v>
       </c>
       <c r="Q34" t="n">
-        <v>2023.854182048946</v>
+        <v>2023.854182048947</v>
       </c>
       <c r="R34" t="n">
-        <v>1981.604991484744</v>
+        <v>1981.604991484745</v>
       </c>
       <c r="S34" t="n">
         <v>1851.112944562872</v>
@@ -6898,10 +6898,10 @@
         <v>1073.238581729954</v>
       </c>
       <c r="X34" t="n">
-        <v>915.0580208691415</v>
+        <v>915.0580208691413</v>
       </c>
       <c r="Y34" t="n">
-        <v>764.0744317628161</v>
+        <v>764.0744317628158</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2429.571666976028</v>
+        <v>2368.156058775919</v>
       </c>
       <c r="C35" t="n">
-        <v>2060.609150035616</v>
+        <v>1999.193541835507</v>
       </c>
       <c r="D35" t="n">
-        <v>1702.343451428866</v>
+        <v>1640.927843228757</v>
       </c>
       <c r="E35" t="n">
-        <v>1316.555198830622</v>
+        <v>1255.139590630512</v>
       </c>
       <c r="F35" t="n">
         <v>905.5692940410142</v>
@@ -6935,7 +6935,7 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J35" t="n">
-        <v>360.6500232857379</v>
+        <v>360.650023285738</v>
       </c>
       <c r="K35" t="n">
         <v>877.9761433937641</v>
@@ -6971,16 +6971,16 @@
         <v>4202.192531690617</v>
       </c>
       <c r="V35" t="n">
-        <v>3932.545252547156</v>
+        <v>3871.129644347046</v>
       </c>
       <c r="W35" t="n">
-        <v>3579.776597277042</v>
+        <v>3518.360989076932</v>
       </c>
       <c r="X35" t="n">
-        <v>3206.310839015962</v>
+        <v>3144.895230815852</v>
       </c>
       <c r="Y35" t="n">
-        <v>2816.17150704015</v>
+        <v>2754.755898840041</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>135.1165516642935</v>
       </c>
       <c r="K36" t="n">
-        <v>280.0588387915153</v>
+        <v>425.093240570336</v>
       </c>
       <c r="L36" t="n">
-        <v>888.4061138288489</v>
+        <v>666.3085737572451</v>
       </c>
       <c r="M36" t="n">
-        <v>1189.249898437996</v>
+        <v>1428.200371478892</v>
       </c>
       <c r="N36" t="n">
-        <v>1512.464767752874</v>
+        <v>1751.41524079377</v>
       </c>
       <c r="O36" t="n">
-        <v>2175.847128911069</v>
+        <v>2024.873905868003</v>
       </c>
       <c r="P36" t="n">
         <v>2540.29366784211</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>652.2349569697809</v>
+        <v>652.2349569697807</v>
       </c>
       <c r="C37" t="n">
-        <v>553.1077640790786</v>
+        <v>553.1077640790784</v>
       </c>
       <c r="D37" t="n">
-        <v>472.8001147039474</v>
+        <v>472.8001147039473</v>
       </c>
       <c r="E37" t="n">
-        <v>394.6960111587589</v>
+        <v>394.6960111587588</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6150536980532</v>
+        <v>317.6150536980531</v>
       </c>
       <c r="G37" t="n">
-        <v>219.2268582281565</v>
+        <v>219.2268582281564</v>
       </c>
       <c r="H37" t="n">
         <v>138.4234505157628</v>
@@ -7093,13 +7093,13 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3278161807649</v>
+        <v>175.327816180765</v>
       </c>
       <c r="K37" t="n">
-        <v>391.4433819620132</v>
+        <v>391.4433819620133</v>
       </c>
       <c r="L37" t="n">
-        <v>704.3893493715783</v>
+        <v>704.3893493715784</v>
       </c>
       <c r="M37" t="n">
         <v>1041.016831382787</v>
@@ -7135,10 +7135,10 @@
         <v>1073.238581729954</v>
       </c>
       <c r="X37" t="n">
-        <v>915.0580208691415</v>
+        <v>915.0580208691413</v>
       </c>
       <c r="Y37" t="n">
-        <v>764.0744317628159</v>
+        <v>764.0744317628157</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2429.571666976028</v>
+        <v>2368.156058775919</v>
       </c>
       <c r="C38" t="n">
         <v>2060.609150035616</v>
@@ -7163,7 +7163,7 @@
         <v>905.5692940410142</v>
       </c>
       <c r="G38" t="n">
-        <v>489.3947778543604</v>
+        <v>489.3947778543603</v>
       </c>
       <c r="H38" t="n">
         <v>180.5246437164881</v>
@@ -7202,22 +7202,22 @@
         <v>4666.61321536864</v>
       </c>
       <c r="T38" t="n">
-        <v>4517.226781899422</v>
+        <v>4455.811173699313</v>
       </c>
       <c r="U38" t="n">
-        <v>4263.608139890726</v>
+        <v>4202.192531690617</v>
       </c>
       <c r="V38" t="n">
-        <v>3932.545252547156</v>
+        <v>3871.129644347046</v>
       </c>
       <c r="W38" t="n">
-        <v>3579.776597277042</v>
+        <v>3518.360989076932</v>
       </c>
       <c r="X38" t="n">
-        <v>3206.310839015962</v>
+        <v>3144.895230815852</v>
       </c>
       <c r="Y38" t="n">
-        <v>2816.17150704015</v>
+        <v>2754.755898840041</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J39" t="n">
-        <v>135.1165516642934</v>
+        <v>135.1165516642935</v>
       </c>
       <c r="K39" t="n">
-        <v>280.0588387915152</v>
+        <v>280.0588387915153</v>
       </c>
       <c r="L39" t="n">
-        <v>888.4061138288488</v>
+        <v>521.2741719784244</v>
       </c>
       <c r="M39" t="n">
-        <v>1189.249898437995</v>
+        <v>822.1179565875711</v>
       </c>
       <c r="N39" t="n">
-        <v>1512.464767752874</v>
+        <v>1145.332825902449</v>
       </c>
       <c r="O39" t="n">
-        <v>2175.847128911068</v>
+        <v>1808.715187060644</v>
       </c>
       <c r="P39" t="n">
-        <v>2540.29366784211</v>
+        <v>2324.134949034752</v>
       </c>
       <c r="Q39" t="n">
-        <v>2624.163844806596</v>
+        <v>2615.981640857729</v>
       </c>
       <c r="R39" t="n">
         <v>2624.163844806596</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>652.234956969781</v>
+        <v>652.2349569697808</v>
       </c>
       <c r="C40" t="n">
-        <v>553.1077640790787</v>
+        <v>553.1077640790785</v>
       </c>
       <c r="D40" t="n">
-        <v>472.8001147039477</v>
+        <v>472.8001147039474</v>
       </c>
       <c r="E40" t="n">
-        <v>394.6960111587592</v>
+        <v>394.6960111587588</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6150536980535</v>
+        <v>317.6150536980531</v>
       </c>
       <c r="G40" t="n">
-        <v>219.2268582281569</v>
+        <v>219.2268582281564</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4234505157628</v>
+        <v>138.4234505157626</v>
       </c>
       <c r="I40" t="n">
         <v>96.04034427075555</v>
@@ -7336,7 +7336,7 @@
         <v>391.4433819620133</v>
       </c>
       <c r="L40" t="n">
-        <v>704.3893493715783</v>
+        <v>704.3893493715784</v>
       </c>
       <c r="M40" t="n">
         <v>1041.016831382787</v>
@@ -7351,7 +7351,7 @@
         <v>1918.395312435442</v>
       </c>
       <c r="Q40" t="n">
-        <v>2023.854182048947</v>
+        <v>2023.854182048946</v>
       </c>
       <c r="R40" t="n">
         <v>1981.604991484744</v>
@@ -7363,7 +7363,7 @@
         <v>1697.043101220007</v>
       </c>
       <c r="U40" t="n">
-        <v>1477.722259898393</v>
+        <v>1477.722259898392</v>
       </c>
       <c r="V40" t="n">
         <v>1292.84676172971</v>
@@ -7372,10 +7372,10 @@
         <v>1073.238581729954</v>
       </c>
       <c r="X40" t="n">
-        <v>915.0580208691416</v>
+        <v>915.058020869141</v>
       </c>
       <c r="Y40" t="n">
-        <v>764.0744317628161</v>
+        <v>764.0744317628159</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>427.9791696542508</v>
       </c>
       <c r="H41" t="n">
-        <v>119.1090355163785</v>
+        <v>180.5246437164881</v>
       </c>
       <c r="I41" t="n">
         <v>96.04034427075555</v>
       </c>
       <c r="J41" t="n">
-        <v>360.6500232857379</v>
+        <v>360.650023285738</v>
       </c>
       <c r="K41" t="n">
-        <v>877.9761433937642</v>
+        <v>877.9761433937641</v>
       </c>
       <c r="L41" t="n">
         <v>1572.041568034716</v>
@@ -7488,25 +7488,25 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J42" t="n">
-        <v>135.1165516642934</v>
+        <v>135.1165516642935</v>
       </c>
       <c r="K42" t="n">
-        <v>280.0588387915152</v>
+        <v>280.0588387915153</v>
       </c>
       <c r="L42" t="n">
-        <v>888.4061138288488</v>
+        <v>521.2741719784244</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.249898437995</v>
+        <v>822.1179565875711</v>
       </c>
       <c r="N42" t="n">
-        <v>1512.464767752874</v>
+        <v>1619.881776502567</v>
       </c>
       <c r="O42" t="n">
-        <v>2175.847128911068</v>
+        <v>1893.3404415768</v>
       </c>
       <c r="P42" t="n">
-        <v>2540.29366784211</v>
+        <v>2332.317152983619</v>
       </c>
       <c r="Q42" t="n">
         <v>2624.163844806596</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>652.2349569697805</v>
+        <v>652.2349569697802</v>
       </c>
       <c r="C43" t="n">
-        <v>553.1077640790782</v>
+        <v>553.1077640790779</v>
       </c>
       <c r="D43" t="n">
-        <v>472.8001147039471</v>
+        <v>472.8001147039467</v>
       </c>
       <c r="E43" t="n">
-        <v>394.6960111587586</v>
+        <v>394.6960111587582</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6150536980529</v>
+        <v>317.6150536980524</v>
       </c>
       <c r="G43" t="n">
-        <v>219.2268582281566</v>
+        <v>219.2268582281565</v>
       </c>
       <c r="H43" t="n">
         <v>138.4234505157628</v>
@@ -7588,13 +7588,13 @@
         <v>1918.395312435442</v>
       </c>
       <c r="Q43" t="n">
-        <v>2023.854182048947</v>
+        <v>2023.854182048946</v>
       </c>
       <c r="R43" t="n">
         <v>1981.604991484744</v>
       </c>
       <c r="S43" t="n">
-        <v>1851.112944562872</v>
+        <v>1851.112944562871</v>
       </c>
       <c r="T43" t="n">
         <v>1697.043101220007</v>
@@ -7609,10 +7609,10 @@
         <v>1073.238581729954</v>
       </c>
       <c r="X43" t="n">
-        <v>915.058020869141</v>
+        <v>915.0580208691409</v>
       </c>
       <c r="Y43" t="n">
-        <v>764.0744317628155</v>
+        <v>764.0744317628154</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>905.5692940410142</v>
       </c>
       <c r="G44" t="n">
-        <v>489.3947778543604</v>
+        <v>489.3947778543603</v>
       </c>
       <c r="H44" t="n">
         <v>180.5246437164881</v>
@@ -7646,10 +7646,10 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J44" t="n">
-        <v>360.6500232857379</v>
+        <v>360.650023285738</v>
       </c>
       <c r="K44" t="n">
-        <v>877.976143393764</v>
+        <v>877.9761433937641</v>
       </c>
       <c r="L44" t="n">
         <v>1572.041568034716</v>
@@ -7725,25 +7725,25 @@
         <v>96.04034427075555</v>
       </c>
       <c r="J45" t="n">
-        <v>135.1165516642934</v>
+        <v>135.1165516642935</v>
       </c>
       <c r="K45" t="n">
-        <v>280.0588387915152</v>
+        <v>280.0588387915153</v>
       </c>
       <c r="L45" t="n">
-        <v>888.4061138288488</v>
+        <v>888.4061138288489</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.249898437995</v>
+        <v>1189.249898437996</v>
       </c>
       <c r="N45" t="n">
         <v>1512.464767752874</v>
       </c>
       <c r="O45" t="n">
-        <v>2024.873905868003</v>
+        <v>2175.847128911069</v>
       </c>
       <c r="P45" t="n">
-        <v>2540.29366784211</v>
+        <v>2375.988749931638</v>
       </c>
       <c r="Q45" t="n">
         <v>2624.163844806596</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>652.2349569697805</v>
+        <v>652.234956969781</v>
       </c>
       <c r="C46" t="n">
-        <v>553.1077640790782</v>
+        <v>553.1077640790787</v>
       </c>
       <c r="D46" t="n">
-        <v>472.800114703947</v>
+        <v>472.8001147039476</v>
       </c>
       <c r="E46" t="n">
-        <v>394.6960111587585</v>
+        <v>394.6960111587591</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6150536980527</v>
+        <v>317.6150536980533</v>
       </c>
       <c r="G46" t="n">
-        <v>219.2268582281561</v>
+        <v>219.2268582281566</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4234505157623</v>
+        <v>138.4234505157628</v>
       </c>
       <c r="I46" t="n">
         <v>96.04034427075555</v>
@@ -7825,10 +7825,10 @@
         <v>1918.395312435442</v>
       </c>
       <c r="Q46" t="n">
-        <v>2023.854182048946</v>
+        <v>2023.854182048947</v>
       </c>
       <c r="R46" t="n">
-        <v>1981.604991484744</v>
+        <v>1981.604991484745</v>
       </c>
       <c r="S46" t="n">
         <v>1851.112944562872</v>
@@ -7837,7 +7837,7 @@
         <v>1697.043101220007</v>
       </c>
       <c r="U46" t="n">
-        <v>1477.722259898392</v>
+        <v>1477.722259898393</v>
       </c>
       <c r="V46" t="n">
         <v>1292.84676172971</v>
@@ -7846,10 +7846,10 @@
         <v>1073.238581729954</v>
       </c>
       <c r="X46" t="n">
-        <v>915.0580208691409</v>
+        <v>915.0580208691415</v>
       </c>
       <c r="Y46" t="n">
-        <v>764.0744317628156</v>
+        <v>764.0744317628162</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>139.6188569073246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,13 +8070,13 @@
         <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>192.6017322224374</v>
       </c>
       <c r="P3" t="n">
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>342.759188933736</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>242.0867335465941</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>241.3641141827236</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>11.57089939734726</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>36.38728271590831</v>
+        <v>36.38728271590836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720758</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9009,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>326.7276211135431</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.46253450583714</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>36.3872827159083</v>
+        <v>36.38728271590837</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119864</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>85.284358074233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.2475660467188</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>36.3872827159083</v>
+        <v>36.38728271590837</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>11.5708993973461</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>156.8301764505185</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>36.3872827159083</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>106.1386917469021</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>165.9645635459311</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>36.3872827159083</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>218.3421402094532</v>
+        <v>209.2077531140407</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>36.3872827159083</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>245.7504895448582</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>338.8711290357106</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>36.3872827159083</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>218.3421402094532</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>6.771049802220091</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,22 +10665,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>146.4993957361826</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>165.9645635459306</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627456</v>
+        <v>380.800181262745</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>165.9645635459311</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>36.3872827159083</v>
+        <v>44.6521351895118</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>165.9645635459311</v>
+        <v>241.2475660467165</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>36.3872827159083</v>
+        <v>36.38728271590828</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.3641141827232</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>165.9645635459308</v>
       </c>
       <c r="R45" t="n">
-        <v>36.3872827159083</v>
+        <v>36.38728271590828</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>175.7785500407299</v>
       </c>
       <c r="C13" t="n">
-        <v>163.1933909574205</v>
+        <v>163.1933909574204</v>
       </c>
       <c r="D13" t="n">
-        <v>144.5620428770051</v>
+        <v>144.562042877005</v>
       </c>
       <c r="E13" t="n">
-        <v>142.3805325053619</v>
+        <v>142.3805325053618</v>
       </c>
       <c r="F13" t="n">
-        <v>141.367617881724</v>
+        <v>141.3676178817238</v>
       </c>
       <c r="G13" t="n">
-        <v>162.461783510823</v>
+        <v>162.4617835108228</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.052843630895</v>
       </c>
       <c r="I13" t="n">
-        <v>107.0167451781825</v>
+        <v>107.0167451781824</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.8841686541854</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2445964482789</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>167.2550274108921</v>
+        <v>154.6774008786731</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.6562252478299</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>214.5312232108874</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.91555701738814</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.1933909574204</v>
       </c>
       <c r="D16" t="n">
-        <v>144.5620428770051</v>
+        <v>144.562042877005</v>
       </c>
       <c r="E16" t="n">
-        <v>142.3805325053619</v>
+        <v>142.3805325053618</v>
       </c>
       <c r="F16" t="n">
-        <v>141.367617881724</v>
+        <v>141.3676178817238</v>
       </c>
       <c r="G16" t="n">
-        <v>162.461783510823</v>
+        <v>162.4617835108228</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0528436308951</v>
+        <v>145.052843630895</v>
       </c>
       <c r="I16" t="n">
         <v>107.0167451781824</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.8841686541854</v>
+        <v>106.8841686541853</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2445964482789</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.5866149050615</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>189.4651850801856</v>
+        <v>221.6562252478298</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.5312232108874</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>175.77855004073</v>
       </c>
       <c r="C19" t="n">
-        <v>39.01615927715061</v>
+        <v>163.1933909574205</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5620428770051</v>
+        <v>124.4169301169974</v>
       </c>
       <c r="E19" t="n">
         <v>142.3805325053619</v>
       </c>
       <c r="F19" t="n">
-        <v>141.367617881724</v>
+        <v>141.3676178817239</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>162.4617835108229</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.0528436308951</v>
       </c>
       <c r="I19" t="n">
         <v>107.0167451781825</v>
@@ -23938,19 +23938,19 @@
         <v>106.8841686541854</v>
       </c>
       <c r="S19" t="n">
-        <v>194.2445964482789</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.5866149050615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.1851029040238</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>282.4695681953837</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.77855004073</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>163.1933909574206</v>
+        <v>163.1933909574205</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.562042877005</v>
       </c>
       <c r="E22" t="n">
-        <v>142.3805325053619</v>
+        <v>142.3805325053618</v>
       </c>
       <c r="F22" t="n">
-        <v>141.367617881724</v>
+        <v>141.3676178817239</v>
       </c>
       <c r="G22" t="n">
-        <v>162.461783510823</v>
+        <v>162.4617835108229</v>
       </c>
       <c r="H22" t="n">
-        <v>145.0528436308951</v>
+        <v>145.052843630895</v>
       </c>
       <c r="I22" t="n">
-        <v>107.0167451781825</v>
+        <v>107.0167451781824</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.8841686541854</v>
+        <v>106.8841686541853</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>185.2302730645513</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>282.4695681953837</v>
       </c>
       <c r="X22" t="n">
-        <v>221.6562252478299</v>
+        <v>155.6334372807209</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>149.2636656331325</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.632317552717</v>
       </c>
       <c r="E25" t="n">
-        <v>128.4508071810738</v>
+        <v>128.4508071810739</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.4378925574359</v>
       </c>
       <c r="G25" t="n">
-        <v>35.40441192167931</v>
+        <v>148.5320581865349</v>
       </c>
       <c r="H25" t="n">
-        <v>131.123118306607</v>
+        <v>131.1231183066071</v>
       </c>
       <c r="I25" t="n">
-        <v>93.08701985389439</v>
+        <v>93.08701985389442</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.95444332989733</v>
+        <v>92.95444332989736</v>
       </c>
       <c r="S25" t="n">
-        <v>180.3148711239908</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>217.445012559124</v>
       </c>
       <c r="X25" t="n">
-        <v>207.7264999235418</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.6014978865994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.9022548576493</v>
+        <v>165.9022548576494</v>
       </c>
       <c r="C28" t="n">
-        <v>153.3170957743398</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>134.6857476939243</v>
+        <v>134.6857476939244</v>
       </c>
       <c r="E28" t="n">
-        <v>132.5042373222811</v>
+        <v>132.5042373222812</v>
       </c>
       <c r="F28" t="n">
-        <v>131.4913226986432</v>
+        <v>131.4913226986433</v>
       </c>
       <c r="G28" t="n">
-        <v>63.68289418224637</v>
+        <v>152.5854883277423</v>
       </c>
       <c r="H28" t="n">
         <v>135.1765484478144</v>
       </c>
       <c r="I28" t="n">
-        <v>97.1404499951017</v>
+        <v>97.14044999510179</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.00787347110465</v>
+        <v>97.00787347110473</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.0694296566524</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.6549280278068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>76.99966071215488</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>153.3170957743399</v>
       </c>
       <c r="D31" t="n">
-        <v>134.6857476939243</v>
+        <v>134.6857476939244</v>
       </c>
       <c r="E31" t="n">
-        <v>132.5042373222811</v>
+        <v>132.5042373222812</v>
       </c>
       <c r="F31" t="n">
-        <v>131.4913226986432</v>
+        <v>131.4913226986433</v>
       </c>
       <c r="G31" t="n">
-        <v>152.5854883277422</v>
+        <v>152.5854883277423</v>
       </c>
       <c r="H31" t="n">
         <v>135.1765484478144</v>
       </c>
       <c r="I31" t="n">
-        <v>97.1404499951017</v>
+        <v>97.14044999510179</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.00787347110465</v>
+        <v>97.00787347110474</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.7103197219807</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>227.2613647923195</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>204.6549280278068</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988875.1538372473</v>
+        <v>988875.1538372474</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>998638.770225279</v>
+        <v>998638.7702252791</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>995797.6419163506</v>
+        <v>995797.6419163505</v>
       </c>
     </row>
     <row r="11">
@@ -26317,16 +26317,16 @@
         <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
         <v>411504.0503322858</v>
       </c>
       <c r="F2" t="n">
+        <v>411504.0503322858</v>
+      </c>
+      <c r="G2" t="n">
         <v>411504.0503322859</v>
-      </c>
-      <c r="G2" t="n">
-        <v>411504.0503322858</v>
       </c>
       <c r="H2" t="n">
         <v>411504.0503322855</v>
@@ -26338,22 +26338,22 @@
         <v>414470.8309376154</v>
       </c>
       <c r="K2" t="n">
-        <v>414470.8309376153</v>
+        <v>414470.8309376154</v>
       </c>
       <c r="L2" t="n">
+        <v>431046.929178749</v>
+      </c>
+      <c r="M2" t="n">
         <v>431046.9291787491</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>431046.9291787491</v>
+      </c>
+      <c r="O2" t="n">
+        <v>431046.9291787491</v>
+      </c>
+      <c r="P2" t="n">
         <v>431046.9291787492</v>
-      </c>
-      <c r="N2" t="n">
-        <v>431046.929178749</v>
-      </c>
-      <c r="O2" t="n">
-        <v>431046.929178749</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431046.9291787491</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>514367.4554972789</v>
+        <v>514367.4554972786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.579914048008504e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>11143.78025943046</v>
+        <v>11143.78025943037</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124979</v>
+        <v>68875.69873124991</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475326</v>
+        <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
-        <v>144908.251789316</v>
+        <v>144908.2517893161</v>
       </c>
       <c r="M3" t="n">
-        <v>131135.3889010909</v>
+        <v>131135.3889010907</v>
       </c>
       <c r="N3" t="n">
-        <v>11143.78025943049</v>
+        <v>11143.78025943036</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>33575.39338708574</v>
+        <v>33575.39338708585</v>
       </c>
       <c r="F4" t="n">
-        <v>33575.39338708574</v>
+        <v>33575.39338708586</v>
       </c>
       <c r="G4" t="n">
-        <v>33575.39338708571</v>
+        <v>33575.3933870858</v>
       </c>
       <c r="H4" t="n">
-        <v>33575.39338708566</v>
+        <v>33575.39338708576</v>
       </c>
       <c r="I4" t="n">
-        <v>38158.96721398279</v>
+        <v>38158.9672139828</v>
       </c>
       <c r="J4" t="n">
-        <v>36825.18669269729</v>
+        <v>36825.18669269717</v>
       </c>
       <c r="K4" t="n">
-        <v>36825.18669269724</v>
+        <v>36825.1866926972</v>
       </c>
       <c r="L4" t="n">
+        <v>54982.54318896668</v>
+      </c>
+      <c r="M4" t="n">
+        <v>54982.54318896668</v>
+      </c>
+      <c r="N4" t="n">
         <v>54982.54318896667</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>54982.54318896667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54982.54318896669</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54982.54318896668</v>
       </c>
       <c r="P4" t="n">
         <v>54982.54318896668</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91172.0952498485</v>
+        <v>91172.09524984847</v>
       </c>
       <c r="F5" t="n">
         <v>91172.09524984848</v>
       </c>
       <c r="G5" t="n">
-        <v>91172.0952498485</v>
+        <v>91172.09524984848</v>
       </c>
       <c r="H5" t="n">
         <v>91172.0952498485</v>
       </c>
       <c r="I5" t="n">
-        <v>92343.15332813608</v>
+        <v>92343.15332813606</v>
       </c>
       <c r="J5" t="n">
-        <v>92002.3855095949</v>
+        <v>92002.38550959491</v>
       </c>
       <c r="K5" t="n">
         <v>92002.38550959491</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33951.24985158353</v>
+        <v>-33951.24985158347</v>
       </c>
       <c r="C6" t="n">
         <v>64617.2051624317</v>
       </c>
       <c r="D6" t="n">
-        <v>-243486.5483601749</v>
+        <v>-243486.5483601748</v>
       </c>
       <c r="E6" t="n">
-        <v>-227610.8938019274</v>
+        <v>-227703.9551297674</v>
       </c>
       <c r="F6" t="n">
-        <v>286756.5616953516</v>
+        <v>286663.5003675111</v>
       </c>
       <c r="G6" t="n">
-        <v>286756.5616953517</v>
+        <v>286663.5003675114</v>
       </c>
       <c r="H6" t="n">
-        <v>286756.5616953514</v>
+        <v>286663.5003675104</v>
       </c>
       <c r="I6" t="n">
-        <v>274042.5565541789</v>
+        <v>273969.4209740695</v>
       </c>
       <c r="J6" t="n">
-        <v>216767.5600040734</v>
+        <v>216688.6262029252</v>
       </c>
       <c r="K6" t="n">
-        <v>282319.4849108479</v>
+        <v>282240.5511096997</v>
       </c>
       <c r="L6" t="n">
-        <v>134514.7225055558</v>
+        <v>134514.7225055555</v>
       </c>
       <c r="M6" t="n">
-        <v>148287.5853937809</v>
+        <v>148287.585393781</v>
       </c>
       <c r="N6" t="n">
-        <v>268279.1940354411</v>
+        <v>268279.1940354414</v>
       </c>
       <c r="O6" t="n">
-        <v>279422.9742948716</v>
+        <v>279422.9742948717</v>
       </c>
       <c r="P6" t="n">
         <v>279422.9742948717</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="F2" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="G2" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="H2" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="I2" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="J2" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="K2" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="L2" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="M2" t="n">
         <v>69.11090013683256</v>
       </c>
       <c r="N2" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="O2" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="P2" t="n">
         <v>69.11090013683254</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>818.3791644739964</v>
+        <v>818.3791644739961</v>
       </c>
       <c r="F3" t="n">
-        <v>818.3791644739965</v>
+        <v>818.379164473996</v>
       </c>
       <c r="G3" t="n">
-        <v>818.3791644739965</v>
+        <v>818.379164473996</v>
       </c>
       <c r="H3" t="n">
         <v>818.3791644739965</v>
@@ -26771,13 +26771,13 @@
         <v>818.3791644739966</v>
       </c>
       <c r="N3" t="n">
-        <v>818.3791644739965</v>
+        <v>818.3791644739966</v>
       </c>
       <c r="O3" t="n">
-        <v>818.3791644739965</v>
+        <v>818.3791644739966</v>
       </c>
       <c r="P3" t="n">
-        <v>818.3791644739965</v>
+        <v>818.3791644739966</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1200.504303384444</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>13.92972532428807</v>
+        <v>13.92972532428796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.18117481254451</v>
+        <v>55.18117481254461</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13.92972532428812</v>
+        <v>13.92972532428795</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979612</v>
       </c>
       <c r="E3" t="n">
-        <v>440.6355002569098</v>
+        <v>440.6355002569095</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="E4" t="n">
-        <v>526.217030629889</v>
+        <v>526.2170306298884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516664</v>
+        <v>263.2420339516668</v>
       </c>
       <c r="K4" t="n">
-        <v>12.914479750689</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>526.217030629889</v>
+        <v>526.2170306298884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>13.92972532428807</v>
+        <v>13.92972532428796</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>526.217030629889</v>
+        <v>526.2170306298884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,28 +27379,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>275.1711654647719</v>
+        <v>277.9474146430895</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27458,16 +27458,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>55.61205697107373</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27476,7 +27476,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>26.81396737735798</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>92.30257421685317</v>
       </c>
       <c r="W4" t="n">
-        <v>144.1359287483323</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>113.9443374426221</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>311.5997175877769</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>25.55170952509837</v>
+        <v>0.0997980740413027</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V7" t="n">
-        <v>91.9387000216621</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>219.7515892305369</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>86.26311576480708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>193.4351158935245</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>113.4458150105471</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="D11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="F11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="G11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="H11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="I11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="T11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="U11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="V11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="W11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="X11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="D13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="E13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="G13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="H13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="I13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="J13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="K13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="L13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="M13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="N13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="O13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="P13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="R13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="S13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="T13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="U13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="V13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="W13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="X13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.0534301412073</v>
+        <v>4.053430141207387</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="C14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="D14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="E14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="F14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="G14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="H14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="I14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="T14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="U14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="V14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="W14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="X14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="C16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="D16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="E16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="F16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="G16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="H16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="I16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="J16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="K16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="L16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="M16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="N16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="O16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="P16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="R16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="S16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="T16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="U16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="V16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="W16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="X16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.053430141207299</v>
+        <v>4.053430141207387</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="C17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="D17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="E17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="F17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="G17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="H17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="I17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="T17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="U17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="V17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="W17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="X17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="C19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="D19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="E19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="F19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="G19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="H19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="I19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="J19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="K19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="L19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="M19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="N19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="O19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="P19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="R19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="S19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="T19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="U19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="V19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="W19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="X19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207327</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="C20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="D20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="E20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="F20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="G20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="H20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="I20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141206348</v>
       </c>
       <c r="T20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="U20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="V20" t="n">
-        <v>4.05343014120632</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="W20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="X20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="C22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="D22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="E22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="F22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="G22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="H22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="I22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="J22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="K22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="L22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="M22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="N22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="O22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="P22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="R22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="S22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="U22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="V22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="W22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="X22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.05343014120726</v>
+        <v>4.053430141207356</v>
       </c>
     </row>
     <row r="23">
@@ -29041,22 +29041,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.851985721622896</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="E23" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.851985721623294</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="I23" t="n">
-        <v>17.98315546549533</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.98315546549533</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="C25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="D25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="E25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="F25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="G25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="H25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="I25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="J25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="K25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="L25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="M25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="N25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="O25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="P25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="R25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="S25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="T25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="U25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="V25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="W25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="X25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.98315546549533</v>
+        <v>17.98315546549532</v>
       </c>
     </row>
     <row r="26">
@@ -29278,22 +29278,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.082550820957863</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>13.92972532428803</v>
+        <v>5.082550820956442</v>
       </c>
       <c r="F26" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="G26" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>13.92972532428803</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="C28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="D28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="E28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="F28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="G28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="H28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="I28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="J28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="K28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="L28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="M28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="N28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="O28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="P28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="R28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="S28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="T28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="U28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="V28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="W28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="X28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
     </row>
     <row r="29">
@@ -29509,22 +29509,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.082550820957124</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="G29" t="n">
-        <v>5.08255082095701</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,10 +29560,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="T29" t="n">
-        <v>13.92972532428803</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29575,10 +29575,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>13.92972532428803</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.92972532428803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="C31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="D31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="E31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="F31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="G31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="H31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="I31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="J31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="K31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="L31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="M31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="N31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="O31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="P31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="R31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="S31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="T31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="U31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="V31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="W31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="X31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.92972532428803</v>
+        <v>13.92972532428793</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>60.80145211810833</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.80145211810833</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="C34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="D34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="E34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="F34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="G34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="H34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="I34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="J34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="K34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="L34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="M34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="N34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="O34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="P34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="R34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="S34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="T34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="U34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="V34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="W34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="X34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.11090013683258</v>
+        <v>69.1109001368326</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>60.8014521181085</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>60.80145211810833</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>60.8014521181085</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>60.80145211810839</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="C40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="D40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="E40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="F40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="G40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="H40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="I40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="J40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="K40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="L40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="M40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="N40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="O40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="P40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="R40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="S40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="T40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="U40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="V40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="W40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="X40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.1109001368326</v>
+        <v>69.11090013683254</v>
       </c>
     </row>
     <row r="41">
@@ -30475,10 +30475,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>60.80145211810847</v>
       </c>
       <c r="I41" t="n">
-        <v>60.80145211810849</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="C43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="D43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="E43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="F43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="G43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="H43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="I43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="J43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="K43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="L43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="M43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="N43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="O43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="P43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="R43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="S43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="T43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="U43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="V43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="W43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="X43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.11090013683256</v>
+        <v>69.11090013683254</v>
       </c>
     </row>
     <row r="44">
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.289966490347722</v>
+        <v>3.28996649034772</v>
       </c>
       <c r="H11" t="n">
-        <v>33.69336931927361</v>
+        <v>33.6933693192736</v>
       </c>
       <c r="I11" t="n">
-        <v>126.8364331191307</v>
+        <v>126.8364331191306</v>
       </c>
       <c r="J11" t="n">
-        <v>279.2317934101502</v>
+        <v>279.2317934101501</v>
       </c>
       <c r="K11" t="n">
-        <v>418.4960749465694</v>
+        <v>418.4960749465692</v>
       </c>
       <c r="L11" t="n">
-        <v>519.1813869255485</v>
+        <v>519.1813869255483</v>
       </c>
       <c r="M11" t="n">
-        <v>577.6893284982698</v>
+        <v>577.6893284982696</v>
       </c>
       <c r="N11" t="n">
-        <v>587.0369457889703</v>
+        <v>587.0369457889701</v>
       </c>
       <c r="O11" t="n">
-        <v>554.3223415005751</v>
+        <v>554.3223415005749</v>
       </c>
       <c r="P11" t="n">
-        <v>473.1012937701157</v>
+        <v>473.1012937701155</v>
       </c>
       <c r="Q11" t="n">
-        <v>355.2793688345378</v>
+        <v>355.2793688345376</v>
       </c>
       <c r="R11" t="n">
-        <v>206.6633575493053</v>
+        <v>206.6633575493052</v>
       </c>
       <c r="S11" t="n">
-        <v>74.97011139879878</v>
+        <v>74.97011139879875</v>
       </c>
       <c r="T11" t="n">
-        <v>14.40182831149716</v>
+        <v>14.40182831149715</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2631973192278177</v>
+        <v>0.2631973192278176</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.760287259434634</v>
+        <v>1.760287259434633</v>
       </c>
       <c r="H12" t="n">
-        <v>17.00066905822397</v>
+        <v>17.00066905822396</v>
       </c>
       <c r="I12" t="n">
-        <v>60.60638152000823</v>
+        <v>60.60638152000821</v>
       </c>
       <c r="J12" t="n">
-        <v>166.3085432257959</v>
+        <v>166.3085432257958</v>
       </c>
       <c r="K12" t="n">
-        <v>284.2477896079163</v>
+        <v>284.2477896079162</v>
       </c>
       <c r="L12" t="n">
-        <v>382.2062314838226</v>
+        <v>382.2062314838225</v>
       </c>
       <c r="M12" t="n">
-        <v>446.016644638328</v>
+        <v>446.0166446383278</v>
       </c>
       <c r="N12" t="n">
-        <v>457.8213780579577</v>
+        <v>457.8213780579575</v>
       </c>
       <c r="O12" t="n">
-        <v>418.8171182568008</v>
+        <v>418.8171182568006</v>
       </c>
       <c r="P12" t="n">
-        <v>336.137660970461</v>
+        <v>336.1376609704608</v>
       </c>
       <c r="Q12" t="n">
         <v>224.6991245551999</v>
@@ -31865,13 +31865,13 @@
         <v>109.2922212480556</v>
       </c>
       <c r="S12" t="n">
-        <v>32.69656378818276</v>
+        <v>32.69656378818274</v>
       </c>
       <c r="T12" t="n">
-        <v>7.095192944826438</v>
+        <v>7.095192944826435</v>
       </c>
       <c r="U12" t="n">
-        <v>0.115808372331226</v>
+        <v>0.1158083723312259</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.475765706428518</v>
+        <v>1.475765706428517</v>
       </c>
       <c r="H13" t="n">
-        <v>13.1208987353372</v>
+        <v>13.12089873533719</v>
       </c>
       <c r="I13" t="n">
-        <v>44.38029960786854</v>
+        <v>44.38029960786852</v>
       </c>
       <c r="J13" t="n">
         <v>104.3366354444962</v>
       </c>
       <c r="K13" t="n">
-        <v>171.4571429832405</v>
+        <v>171.4571429832404</v>
       </c>
       <c r="L13" t="n">
-        <v>219.4061123902908</v>
+        <v>219.4061123902907</v>
       </c>
       <c r="M13" t="n">
-        <v>231.3329825086085</v>
+        <v>231.3329825086084</v>
       </c>
       <c r="N13" t="n">
-        <v>225.8324012391933</v>
+        <v>225.8324012391932</v>
       </c>
       <c r="O13" t="n">
-        <v>208.5927745777328</v>
+        <v>208.5927745777327</v>
       </c>
       <c r="P13" t="n">
-        <v>178.4871541665909</v>
+        <v>178.4871541665908</v>
       </c>
       <c r="Q13" t="n">
         <v>123.5752538355734</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3557925817768</v>
+        <v>66.35579258177677</v>
       </c>
       <c r="S13" t="n">
-        <v>25.71857144748607</v>
+        <v>25.71857144748606</v>
       </c>
       <c r="T13" t="n">
-        <v>6.305544382012757</v>
+        <v>6.305544382012754</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08049631125973744</v>
+        <v>0.0804963112597374</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.289966490347722</v>
+        <v>3.28996649034772</v>
       </c>
       <c r="H14" t="n">
-        <v>33.69336931927362</v>
+        <v>33.69336931927359</v>
       </c>
       <c r="I14" t="n">
-        <v>126.8364331191307</v>
+        <v>126.8364331191306</v>
       </c>
       <c r="J14" t="n">
-        <v>279.2317934101503</v>
+        <v>279.23179341015</v>
       </c>
       <c r="K14" t="n">
-        <v>418.4960749465694</v>
+        <v>418.4960749465691</v>
       </c>
       <c r="L14" t="n">
-        <v>519.1813869255486</v>
+        <v>519.1813869255483</v>
       </c>
       <c r="M14" t="n">
-        <v>577.6893284982699</v>
+        <v>577.6893284982694</v>
       </c>
       <c r="N14" t="n">
-        <v>587.0369457889705</v>
+        <v>587.03694578897</v>
       </c>
       <c r="O14" t="n">
-        <v>554.3223415005752</v>
+        <v>554.3223415005748</v>
       </c>
       <c r="P14" t="n">
-        <v>473.1012937701158</v>
+        <v>473.1012937701154</v>
       </c>
       <c r="Q14" t="n">
-        <v>355.2793688345378</v>
+        <v>355.2793688345376</v>
       </c>
       <c r="R14" t="n">
-        <v>206.6633575493053</v>
+        <v>206.6633575493051</v>
       </c>
       <c r="S14" t="n">
-        <v>74.97011139879879</v>
+        <v>74.97011139879875</v>
       </c>
       <c r="T14" t="n">
-        <v>14.40182831149716</v>
+        <v>14.40182831149715</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2631973192278177</v>
+        <v>0.2631973192278175</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.760287259434634</v>
+        <v>1.760287259434633</v>
       </c>
       <c r="H15" t="n">
-        <v>17.00066905822397</v>
+        <v>17.00066905822396</v>
       </c>
       <c r="I15" t="n">
-        <v>60.60638152000824</v>
+        <v>60.6063815200082</v>
       </c>
       <c r="J15" t="n">
-        <v>166.3085432257959</v>
+        <v>166.3085432257957</v>
       </c>
       <c r="K15" t="n">
-        <v>284.2477896079163</v>
+        <v>284.2477896079162</v>
       </c>
       <c r="L15" t="n">
-        <v>382.2062314838226</v>
+        <v>382.2062314838224</v>
       </c>
       <c r="M15" t="n">
-        <v>446.016644638328</v>
+        <v>446.0166446383278</v>
       </c>
       <c r="N15" t="n">
-        <v>457.8213780579578</v>
+        <v>457.8213780579574</v>
       </c>
       <c r="O15" t="n">
-        <v>418.8171182568008</v>
+        <v>418.8171182568005</v>
       </c>
       <c r="P15" t="n">
-        <v>336.137660970461</v>
+        <v>336.1376609704607</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.6991245552</v>
+        <v>224.6991245551998</v>
       </c>
       <c r="R15" t="n">
-        <v>109.2922212480557</v>
+        <v>109.2922212480556</v>
       </c>
       <c r="S15" t="n">
-        <v>32.69656378818276</v>
+        <v>32.69656378818274</v>
       </c>
       <c r="T15" t="n">
-        <v>7.095192944826439</v>
+        <v>7.095192944826434</v>
       </c>
       <c r="U15" t="n">
-        <v>0.115808372331226</v>
+        <v>0.1158083723312259</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.475765706428518</v>
+        <v>1.475765706428517</v>
       </c>
       <c r="H16" t="n">
-        <v>13.1208987353372</v>
+        <v>13.12089873533719</v>
       </c>
       <c r="I16" t="n">
-        <v>44.38029960786854</v>
+        <v>44.38029960786851</v>
       </c>
       <c r="J16" t="n">
         <v>104.3366354444962</v>
       </c>
       <c r="K16" t="n">
-        <v>171.4571429832405</v>
+        <v>171.4571429832404</v>
       </c>
       <c r="L16" t="n">
-        <v>219.4061123902908</v>
+        <v>219.4061123902907</v>
       </c>
       <c r="M16" t="n">
-        <v>231.3329825086085</v>
+        <v>231.3329825086084</v>
       </c>
       <c r="N16" t="n">
-        <v>225.8324012391933</v>
+        <v>225.8324012391932</v>
       </c>
       <c r="O16" t="n">
-        <v>208.5927745777328</v>
+        <v>208.5927745777327</v>
       </c>
       <c r="P16" t="n">
-        <v>178.4871541665909</v>
+        <v>178.4871541665908</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.5752538355735</v>
+        <v>123.5752538355734</v>
       </c>
       <c r="R16" t="n">
-        <v>66.35579258177681</v>
+        <v>66.35579258177677</v>
       </c>
       <c r="S16" t="n">
-        <v>25.71857144748608</v>
+        <v>25.71857144748606</v>
       </c>
       <c r="T16" t="n">
-        <v>6.305544382012758</v>
+        <v>6.305544382012753</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08049631125973744</v>
+        <v>0.08049631125973739</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.289966490347722</v>
+        <v>3.28996649034772</v>
       </c>
       <c r="H17" t="n">
-        <v>33.69336931927362</v>
+        <v>33.69336931927359</v>
       </c>
       <c r="I17" t="n">
-        <v>126.8364331191307</v>
+        <v>126.8364331191306</v>
       </c>
       <c r="J17" t="n">
-        <v>279.2317934101503</v>
+        <v>279.23179341015</v>
       </c>
       <c r="K17" t="n">
-        <v>418.4960749465694</v>
+        <v>418.4960749465691</v>
       </c>
       <c r="L17" t="n">
-        <v>519.1813869255486</v>
+        <v>519.1813869255483</v>
       </c>
       <c r="M17" t="n">
-        <v>577.6893284982699</v>
+        <v>577.6893284982694</v>
       </c>
       <c r="N17" t="n">
-        <v>587.0369457889705</v>
+        <v>587.03694578897</v>
       </c>
       <c r="O17" t="n">
-        <v>554.3223415005752</v>
+        <v>554.3223415005748</v>
       </c>
       <c r="P17" t="n">
-        <v>473.1012937701158</v>
+        <v>473.1012937701154</v>
       </c>
       <c r="Q17" t="n">
-        <v>355.2793688345378</v>
+        <v>355.2793688345376</v>
       </c>
       <c r="R17" t="n">
-        <v>206.6633575493053</v>
+        <v>206.6633575493051</v>
       </c>
       <c r="S17" t="n">
-        <v>74.97011139879879</v>
+        <v>74.97011139879875</v>
       </c>
       <c r="T17" t="n">
-        <v>14.40182831149716</v>
+        <v>14.40182831149715</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2631973192278177</v>
+        <v>0.2631973192278175</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.760287259434634</v>
+        <v>1.760287259434633</v>
       </c>
       <c r="H18" t="n">
-        <v>17.00066905822397</v>
+        <v>17.00066905822396</v>
       </c>
       <c r="I18" t="n">
-        <v>60.60638152000824</v>
+        <v>60.6063815200082</v>
       </c>
       <c r="J18" t="n">
-        <v>166.3085432257959</v>
+        <v>166.3085432257957</v>
       </c>
       <c r="K18" t="n">
-        <v>284.2477896079163</v>
+        <v>284.2477896079162</v>
       </c>
       <c r="L18" t="n">
-        <v>382.2062314838226</v>
+        <v>382.2062314838224</v>
       </c>
       <c r="M18" t="n">
-        <v>446.016644638328</v>
+        <v>446.0166446383278</v>
       </c>
       <c r="N18" t="n">
-        <v>457.8213780579578</v>
+        <v>457.8213780579574</v>
       </c>
       <c r="O18" t="n">
-        <v>418.8171182568008</v>
+        <v>418.8171182568005</v>
       </c>
       <c r="P18" t="n">
-        <v>336.137660970461</v>
+        <v>336.1376609704607</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.6991245552</v>
+        <v>224.6991245551998</v>
       </c>
       <c r="R18" t="n">
-        <v>109.2922212480557</v>
+        <v>109.2922212480556</v>
       </c>
       <c r="S18" t="n">
-        <v>32.69656378818276</v>
+        <v>32.69656378818274</v>
       </c>
       <c r="T18" t="n">
-        <v>7.095192944826439</v>
+        <v>7.095192944826434</v>
       </c>
       <c r="U18" t="n">
-        <v>0.115808372331226</v>
+        <v>0.1158083723312259</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.475765706428518</v>
+        <v>1.475765706428517</v>
       </c>
       <c r="H19" t="n">
-        <v>13.1208987353372</v>
+        <v>13.12089873533719</v>
       </c>
       <c r="I19" t="n">
-        <v>44.38029960786854</v>
+        <v>44.38029960786851</v>
       </c>
       <c r="J19" t="n">
         <v>104.3366354444962</v>
       </c>
       <c r="K19" t="n">
-        <v>171.4571429832405</v>
+        <v>171.4571429832404</v>
       </c>
       <c r="L19" t="n">
-        <v>219.4061123902908</v>
+        <v>219.4061123902907</v>
       </c>
       <c r="M19" t="n">
-        <v>231.3329825086085</v>
+        <v>231.3329825086084</v>
       </c>
       <c r="N19" t="n">
-        <v>225.8324012391933</v>
+        <v>225.8324012391932</v>
       </c>
       <c r="O19" t="n">
-        <v>208.5927745777328</v>
+        <v>208.5927745777327</v>
       </c>
       <c r="P19" t="n">
-        <v>178.4871541665909</v>
+        <v>178.4871541665908</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.5752538355735</v>
+        <v>123.5752538355734</v>
       </c>
       <c r="R19" t="n">
-        <v>66.35579258177681</v>
+        <v>66.35579258177677</v>
       </c>
       <c r="S19" t="n">
-        <v>25.71857144748608</v>
+        <v>25.71857144748606</v>
       </c>
       <c r="T19" t="n">
-        <v>6.305544382012758</v>
+        <v>6.305544382012753</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08049631125973744</v>
+        <v>0.08049631125973739</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.289966490347722</v>
+        <v>3.289966490347723</v>
       </c>
       <c r="H38" t="n">
         <v>33.69336931927362</v>
@@ -33895,13 +33895,13 @@
         <v>279.2317934101503</v>
       </c>
       <c r="K38" t="n">
-        <v>418.4960749465694</v>
+        <v>418.4960749465695</v>
       </c>
       <c r="L38" t="n">
-        <v>519.1813869255486</v>
+        <v>519.1813869255487</v>
       </c>
       <c r="M38" t="n">
-        <v>577.6893284982699</v>
+        <v>577.68932849827</v>
       </c>
       <c r="N38" t="n">
         <v>587.0369457889705</v>
@@ -33913,13 +33913,13 @@
         <v>473.1012937701158</v>
       </c>
       <c r="Q38" t="n">
-        <v>355.2793688345378</v>
+        <v>355.2793688345379</v>
       </c>
       <c r="R38" t="n">
         <v>206.6633575493053</v>
       </c>
       <c r="S38" t="n">
-        <v>74.97011139879879</v>
+        <v>74.97011139879881</v>
       </c>
       <c r="T38" t="n">
         <v>14.40182831149716</v>
@@ -33968,25 +33968,25 @@
         <v>17.00066905822397</v>
       </c>
       <c r="I39" t="n">
-        <v>60.60638152000824</v>
+        <v>60.60638152000825</v>
       </c>
       <c r="J39" t="n">
         <v>166.3085432257959</v>
       </c>
       <c r="K39" t="n">
-        <v>284.2477896079163</v>
+        <v>284.2477896079164</v>
       </c>
       <c r="L39" t="n">
-        <v>382.2062314838226</v>
+        <v>382.2062314838227</v>
       </c>
       <c r="M39" t="n">
-        <v>446.016644638328</v>
+        <v>446.0166446383281</v>
       </c>
       <c r="N39" t="n">
         <v>457.8213780579578</v>
       </c>
       <c r="O39" t="n">
-        <v>418.8171182568008</v>
+        <v>418.8171182568009</v>
       </c>
       <c r="P39" t="n">
         <v>336.137660970461</v>
@@ -33998,10 +33998,10 @@
         <v>109.2922212480557</v>
       </c>
       <c r="S39" t="n">
-        <v>32.69656378818276</v>
+        <v>32.69656378818277</v>
       </c>
       <c r="T39" t="n">
-        <v>7.095192944826439</v>
+        <v>7.09519294482644</v>
       </c>
       <c r="U39" t="n">
         <v>0.115808372331226</v>
@@ -34047,7 +34047,7 @@
         <v>13.1208987353372</v>
       </c>
       <c r="I40" t="n">
-        <v>44.38029960786854</v>
+        <v>44.38029960786855</v>
       </c>
       <c r="J40" t="n">
         <v>104.3366354444962</v>
@@ -34074,16 +34074,16 @@
         <v>123.5752538355735</v>
       </c>
       <c r="R40" t="n">
-        <v>66.35579258177681</v>
+        <v>66.35579258177683</v>
       </c>
       <c r="S40" t="n">
         <v>25.71857144748608</v>
       </c>
       <c r="T40" t="n">
-        <v>6.305544382012758</v>
+        <v>6.305544382012759</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08049631125973744</v>
+        <v>0.08049631125973745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.289966490347722</v>
+        <v>3.289966490347723</v>
       </c>
       <c r="H41" t="n">
         <v>33.69336931927362</v>
@@ -34132,13 +34132,13 @@
         <v>279.2317934101503</v>
       </c>
       <c r="K41" t="n">
-        <v>418.4960749465694</v>
+        <v>418.4960749465695</v>
       </c>
       <c r="L41" t="n">
-        <v>519.1813869255486</v>
+        <v>519.1813869255487</v>
       </c>
       <c r="M41" t="n">
-        <v>577.6893284982699</v>
+        <v>577.68932849827</v>
       </c>
       <c r="N41" t="n">
         <v>587.0369457889705</v>
@@ -34150,13 +34150,13 @@
         <v>473.1012937701158</v>
       </c>
       <c r="Q41" t="n">
-        <v>355.2793688345378</v>
+        <v>355.2793688345379</v>
       </c>
       <c r="R41" t="n">
         <v>206.6633575493053</v>
       </c>
       <c r="S41" t="n">
-        <v>74.97011139879879</v>
+        <v>74.97011139879881</v>
       </c>
       <c r="T41" t="n">
         <v>14.40182831149716</v>
@@ -34205,25 +34205,25 @@
         <v>17.00066905822397</v>
       </c>
       <c r="I42" t="n">
-        <v>60.60638152000824</v>
+        <v>60.60638152000825</v>
       </c>
       <c r="J42" t="n">
         <v>166.3085432257959</v>
       </c>
       <c r="K42" t="n">
-        <v>284.2477896079163</v>
+        <v>284.2477896079164</v>
       </c>
       <c r="L42" t="n">
-        <v>382.2062314838226</v>
+        <v>382.2062314838227</v>
       </c>
       <c r="M42" t="n">
-        <v>446.016644638328</v>
+        <v>446.0166446383281</v>
       </c>
       <c r="N42" t="n">
         <v>457.8213780579578</v>
       </c>
       <c r="O42" t="n">
-        <v>418.8171182568008</v>
+        <v>418.8171182568009</v>
       </c>
       <c r="P42" t="n">
         <v>336.137660970461</v>
@@ -34235,10 +34235,10 @@
         <v>109.2922212480557</v>
       </c>
       <c r="S42" t="n">
-        <v>32.69656378818276</v>
+        <v>32.69656378818277</v>
       </c>
       <c r="T42" t="n">
-        <v>7.095192944826439</v>
+        <v>7.09519294482644</v>
       </c>
       <c r="U42" t="n">
         <v>0.115808372331226</v>
@@ -34284,7 +34284,7 @@
         <v>13.1208987353372</v>
       </c>
       <c r="I43" t="n">
-        <v>44.38029960786854</v>
+        <v>44.38029960786855</v>
       </c>
       <c r="J43" t="n">
         <v>104.3366354444962</v>
@@ -34311,16 +34311,16 @@
         <v>123.5752538355735</v>
       </c>
       <c r="R43" t="n">
-        <v>66.35579258177681</v>
+        <v>66.35579258177683</v>
       </c>
       <c r="S43" t="n">
         <v>25.71857144748608</v>
       </c>
       <c r="T43" t="n">
-        <v>6.305544382012758</v>
+        <v>6.305544382012759</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08049631125973744</v>
+        <v>0.08049631125973745</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.289966490347722</v>
+        <v>3.289966490347723</v>
       </c>
       <c r="H44" t="n">
         <v>33.69336931927362</v>
@@ -34369,13 +34369,13 @@
         <v>279.2317934101503</v>
       </c>
       <c r="K44" t="n">
-        <v>418.4960749465694</v>
+        <v>418.4960749465695</v>
       </c>
       <c r="L44" t="n">
-        <v>519.1813869255486</v>
+        <v>519.1813869255487</v>
       </c>
       <c r="M44" t="n">
-        <v>577.6893284982699</v>
+        <v>577.68932849827</v>
       </c>
       <c r="N44" t="n">
         <v>587.0369457889705</v>
@@ -34387,13 +34387,13 @@
         <v>473.1012937701158</v>
       </c>
       <c r="Q44" t="n">
-        <v>355.2793688345378</v>
+        <v>355.2793688345379</v>
       </c>
       <c r="R44" t="n">
         <v>206.6633575493053</v>
       </c>
       <c r="S44" t="n">
-        <v>74.97011139879879</v>
+        <v>74.97011139879881</v>
       </c>
       <c r="T44" t="n">
         <v>14.40182831149716</v>
@@ -34442,25 +34442,25 @@
         <v>17.00066905822397</v>
       </c>
       <c r="I45" t="n">
-        <v>60.60638152000824</v>
+        <v>60.60638152000825</v>
       </c>
       <c r="J45" t="n">
         <v>166.3085432257959</v>
       </c>
       <c r="K45" t="n">
-        <v>284.2477896079163</v>
+        <v>284.2477896079164</v>
       </c>
       <c r="L45" t="n">
-        <v>382.2062314838226</v>
+        <v>382.2062314838227</v>
       </c>
       <c r="M45" t="n">
-        <v>446.016644638328</v>
+        <v>446.0166446383281</v>
       </c>
       <c r="N45" t="n">
         <v>457.8213780579578</v>
       </c>
       <c r="O45" t="n">
-        <v>418.8171182568008</v>
+        <v>418.8171182568009</v>
       </c>
       <c r="P45" t="n">
         <v>336.137660970461</v>
@@ -34472,10 +34472,10 @@
         <v>109.2922212480557</v>
       </c>
       <c r="S45" t="n">
-        <v>32.69656378818276</v>
+        <v>32.69656378818277</v>
       </c>
       <c r="T45" t="n">
-        <v>7.095192944826439</v>
+        <v>7.09519294482644</v>
       </c>
       <c r="U45" t="n">
         <v>0.115808372331226</v>
@@ -34521,7 +34521,7 @@
         <v>13.1208987353372</v>
       </c>
       <c r="I46" t="n">
-        <v>44.38029960786854</v>
+        <v>44.38029960786855</v>
       </c>
       <c r="J46" t="n">
         <v>104.3366354444962</v>
@@ -34548,16 +34548,16 @@
         <v>123.5752538355735</v>
       </c>
       <c r="R46" t="n">
-        <v>66.35579258177681</v>
+        <v>66.35579258177683</v>
       </c>
       <c r="S46" t="n">
         <v>25.71857144748608</v>
       </c>
       <c r="T46" t="n">
-        <v>6.305544382012758</v>
+        <v>6.305544382012759</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08049631125973744</v>
+        <v>0.08049631125973745</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.770660483715867</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
         <v>243.0338665604671</v>
@@ -34790,13 +34790,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>61.78291202903321</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>231.0092291087368</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>117.4131148590401</v>
       </c>
       <c r="P6" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>267.2825040555377</v>
+        <v>267.2825040555376</v>
       </c>
       <c r="K11" t="n">
-        <v>522.5516364727536</v>
+        <v>522.5516364727534</v>
       </c>
       <c r="L11" t="n">
-        <v>701.0761865060117</v>
+        <v>701.0761865060115</v>
       </c>
       <c r="M11" t="n">
-        <v>796.8566287638296</v>
+        <v>796.8566287638293</v>
       </c>
       <c r="N11" t="n">
-        <v>794.9708066043636</v>
+        <v>794.9708066043634</v>
       </c>
       <c r="O11" t="n">
-        <v>705.0243113416337</v>
+        <v>705.0243113416335</v>
       </c>
       <c r="P11" t="n">
-        <v>563.6670061863288</v>
+        <v>563.6670061863285</v>
       </c>
       <c r="Q11" t="n">
-        <v>345.288669619993</v>
+        <v>345.2886696199928</v>
       </c>
       <c r="R11" t="n">
-        <v>56.79423960815558</v>
+        <v>56.79423960815549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.47091655912917</v>
+        <v>165.5619518995379</v>
       </c>
       <c r="K12" t="n">
-        <v>387.7704648162809</v>
+        <v>410.8715876461358</v>
       </c>
       <c r="L12" t="n">
-        <v>614.4921970074076</v>
+        <v>243.6518517039483</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8826107163097</v>
+        <v>303.8826107163095</v>
       </c>
       <c r="N12" t="n">
-        <v>326.4796659746244</v>
+        <v>326.4796659746243</v>
       </c>
       <c r="O12" t="n">
-        <v>276.2208738123563</v>
+        <v>287.7917732097034</v>
       </c>
       <c r="P12" t="n">
-        <v>520.6260221960679</v>
+        <v>520.6260221960677</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.71735046917843</v>
+        <v>294.7946382050275</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.03088546903074</v>
+        <v>15.03088546903078</v>
       </c>
       <c r="K13" t="n">
         <v>153.2410812985649</v>
@@ -35574,7 +35574,7 @@
         <v>251.0495677918142</v>
       </c>
       <c r="M13" t="n">
-        <v>274.9702896116563</v>
+        <v>274.9702896116564</v>
       </c>
       <c r="N13" t="n">
         <v>274.0180037596292</v>
@@ -35583,10 +35583,10 @@
         <v>237.2313326329797</v>
       </c>
       <c r="P13" t="n">
-        <v>179.8191435726916</v>
+        <v>179.8191435726917</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.46664072508636</v>
+        <v>41.46664072508641</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>267.2825040555377</v>
+        <v>267.2825040555396</v>
       </c>
       <c r="K14" t="n">
-        <v>522.5516364727537</v>
+        <v>522.5516364727533</v>
       </c>
       <c r="L14" t="n">
-        <v>701.0761865060118</v>
+        <v>701.0761865060115</v>
       </c>
       <c r="M14" t="n">
-        <v>796.8566287638297</v>
+        <v>796.8566287638292</v>
       </c>
       <c r="N14" t="n">
-        <v>794.9708066043637</v>
+        <v>794.9708066043632</v>
       </c>
       <c r="O14" t="n">
-        <v>705.0243113416338</v>
+        <v>705.0243113416334</v>
       </c>
       <c r="P14" t="n">
-        <v>563.6670061863289</v>
+        <v>563.6670061863285</v>
       </c>
       <c r="Q14" t="n">
-        <v>345.288669619993</v>
+        <v>345.2886696199928</v>
       </c>
       <c r="R14" t="n">
-        <v>56.79423960815561</v>
+        <v>56.79423960815546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>39.47091655912917</v>
+        <v>39.47091655912905</v>
       </c>
       <c r="K15" t="n">
-        <v>146.4063506335573</v>
+        <v>146.4063506335572</v>
       </c>
       <c r="L15" t="n">
-        <v>243.6518517039485</v>
+        <v>570.3794728174913</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8826107163097</v>
+        <v>303.8826107163094</v>
       </c>
       <c r="N15" t="n">
-        <v>805.822040318178</v>
+        <v>326.4796659746241</v>
       </c>
       <c r="O15" t="n">
-        <v>670.0831930890859</v>
+        <v>670.0831930890856</v>
       </c>
       <c r="P15" t="n">
-        <v>202.1632535561308</v>
+        <v>202.1632535561305</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.1798849750156</v>
+        <v>294.7946382050274</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.03088546903075</v>
+        <v>15.03088546903076</v>
       </c>
       <c r="K16" t="n">
         <v>153.2410812985649</v>
@@ -35811,16 +35811,16 @@
         <v>251.0495677918142</v>
       </c>
       <c r="M16" t="n">
-        <v>274.9702896116564</v>
+        <v>274.9702896116563</v>
       </c>
       <c r="N16" t="n">
         <v>274.0180037596292</v>
       </c>
       <c r="O16" t="n">
-        <v>237.2313326329798</v>
+        <v>237.2313326329797</v>
       </c>
       <c r="P16" t="n">
-        <v>179.8191435726917</v>
+        <v>179.8191435726916</v>
       </c>
       <c r="Q16" t="n">
         <v>41.46664072508639</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>267.2825040555377</v>
+        <v>267.2825040555375</v>
       </c>
       <c r="K17" t="n">
-        <v>522.5516364727537</v>
+        <v>522.5516364727533</v>
       </c>
       <c r="L17" t="n">
-        <v>701.0761865060118</v>
+        <v>701.0761865060115</v>
       </c>
       <c r="M17" t="n">
-        <v>796.8566287638297</v>
+        <v>796.8566287638292</v>
       </c>
       <c r="N17" t="n">
-        <v>794.9708066043637</v>
+        <v>794.9708066043655</v>
       </c>
       <c r="O17" t="n">
-        <v>705.0243113416338</v>
+        <v>705.0243113416334</v>
       </c>
       <c r="P17" t="n">
-        <v>563.6670061863289</v>
+        <v>563.6670061863285</v>
       </c>
       <c r="Q17" t="n">
-        <v>345.288669619993</v>
+        <v>345.2886696199928</v>
       </c>
       <c r="R17" t="n">
-        <v>56.79423960815561</v>
+        <v>56.79423960815546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>124.7552746333622</v>
+        <v>39.47091655912905</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8715876461359</v>
+        <v>146.4063506335572</v>
       </c>
       <c r="L18" t="n">
-        <v>614.4921970074076</v>
+        <v>243.6518517039482</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8826107163097</v>
+        <v>545.1301767630282</v>
       </c>
       <c r="N18" t="n">
-        <v>326.4796659746245</v>
+        <v>805.8220403181776</v>
       </c>
       <c r="O18" t="n">
-        <v>276.2208738123564</v>
+        <v>276.2208738123561</v>
       </c>
       <c r="P18" t="n">
-        <v>202.1632535561308</v>
+        <v>202.1632535561305</v>
       </c>
       <c r="Q18" t="n">
-        <v>294.7946382050276</v>
+        <v>294.7946382050274</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>153.2410812985649</v>
       </c>
       <c r="L19" t="n">
-        <v>251.0495677918142</v>
+        <v>251.0495677918141</v>
       </c>
       <c r="M19" t="n">
-        <v>274.9702896116564</v>
+        <v>274.9702896116563</v>
       </c>
       <c r="N19" t="n">
-        <v>274.0180037596292</v>
+        <v>274.0180037596291</v>
       </c>
       <c r="O19" t="n">
         <v>237.2313326329797</v>
@@ -36060,7 +36060,7 @@
         <v>179.8191435726916</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.46664072508635</v>
+        <v>41.46664072508634</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>165.561951899538</v>
+        <v>39.47091655912917</v>
       </c>
       <c r="K21" t="n">
-        <v>410.8715876461359</v>
+        <v>146.4063506335573</v>
       </c>
       <c r="L21" t="n">
-        <v>255.2227511012946</v>
+        <v>614.4921970074076</v>
       </c>
       <c r="M21" t="n">
         <v>303.8826107163097</v>
@@ -36212,16 +36212,16 @@
         <v>326.4796659746245</v>
       </c>
       <c r="O21" t="n">
-        <v>276.2208738123564</v>
+        <v>670.0831930890859</v>
       </c>
       <c r="P21" t="n">
-        <v>520.6260221960679</v>
+        <v>358.9934300066493</v>
       </c>
       <c r="Q21" t="n">
-        <v>294.7946382050276</v>
+        <v>84.71735046917846</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.134387095412521</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.03088546903071</v>
+        <v>15.0308854690308</v>
       </c>
       <c r="K22" t="n">
-        <v>153.2410812985649</v>
+        <v>153.241081298565</v>
       </c>
       <c r="L22" t="n">
-        <v>251.0495677918142</v>
+        <v>251.0495677918143</v>
       </c>
       <c r="M22" t="n">
         <v>274.9702896116564</v>
       </c>
       <c r="N22" t="n">
-        <v>274.0180037596292</v>
+        <v>274.0180037596293</v>
       </c>
       <c r="O22" t="n">
-        <v>237.2313326329797</v>
+        <v>237.2313326329798</v>
       </c>
       <c r="P22" t="n">
-        <v>179.8191435726916</v>
+        <v>179.8191435726917</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.46664072508635</v>
+        <v>41.46664072508645</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>39.47091655912917</v>
+        <v>165.561951899538</v>
       </c>
       <c r="K24" t="n">
         <v>146.4063506335573</v>
@@ -36446,19 +36446,19 @@
         <v>303.8826107163097</v>
       </c>
       <c r="N24" t="n">
-        <v>326.4796659746245</v>
+        <v>432.6183577215265</v>
       </c>
       <c r="O24" t="n">
-        <v>670.0831930890859</v>
+        <v>276.2208738123564</v>
       </c>
       <c r="P24" t="n">
-        <v>368.1278171020618</v>
+        <v>520.6260221960679</v>
       </c>
       <c r="Q24" t="n">
         <v>84.71735046917846</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.134387095412521</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>28.96061079331878</v>
+        <v>28.96061079331876</v>
       </c>
       <c r="K25" t="n">
         <v>167.170806622853</v>
@@ -36534,7 +36534,7 @@
         <v>193.7488688969797</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.39636604937442</v>
+        <v>55.39636604937441</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>146.4063506335573</v>
       </c>
       <c r="L27" t="n">
-        <v>461.9939919134017</v>
+        <v>452.8596048179892</v>
       </c>
       <c r="M27" t="n">
         <v>303.8826107163097</v>
@@ -36695,7 +36695,7 @@
         <v>84.71735046917846</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.134387095412521</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.90718065211148</v>
+        <v>24.90718065211138</v>
       </c>
       <c r="K28" t="n">
-        <v>163.1173764816457</v>
+        <v>163.1173764816456</v>
       </c>
       <c r="L28" t="n">
-        <v>260.925862974895</v>
+        <v>260.9258629748949</v>
       </c>
       <c r="M28" t="n">
-        <v>284.8465847947371</v>
+        <v>284.846584794737</v>
       </c>
       <c r="N28" t="n">
-        <v>283.89429894271</v>
+        <v>283.8942989427098</v>
       </c>
       <c r="O28" t="n">
-        <v>247.1076278160605</v>
+        <v>247.1076278160604</v>
       </c>
       <c r="P28" t="n">
-        <v>189.6954387557724</v>
+        <v>189.6954387557723</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.34293590816713</v>
+        <v>51.34293590816702</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>165.561951899538</v>
+        <v>39.47091655912917</v>
       </c>
       <c r="K30" t="n">
         <v>146.4063506335573</v>
       </c>
       <c r="L30" t="n">
-        <v>243.6518517039485</v>
+        <v>489.4023412488067</v>
       </c>
       <c r="M30" t="n">
         <v>769.5876744663096</v>
       </c>
       <c r="N30" t="n">
-        <v>665.3507950103351</v>
+        <v>326.4796659746245</v>
       </c>
       <c r="O30" t="n">
         <v>276.2208738123564</v>
@@ -36929,10 +36929,10 @@
         <v>202.1632535561308</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.71735046917846</v>
+        <v>294.7946382050276</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.134387095412521</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.90718065211148</v>
+        <v>24.90718065211138</v>
       </c>
       <c r="K31" t="n">
-        <v>163.1173764816457</v>
+        <v>163.1173764816456</v>
       </c>
       <c r="L31" t="n">
-        <v>260.925862974895</v>
+        <v>260.9258629748949</v>
       </c>
       <c r="M31" t="n">
-        <v>284.8465847947371</v>
+        <v>284.846584794737</v>
       </c>
       <c r="N31" t="n">
-        <v>283.89429894271</v>
+        <v>283.8942989427098</v>
       </c>
       <c r="O31" t="n">
-        <v>247.1076278160605</v>
+        <v>247.1076278160604</v>
       </c>
       <c r="P31" t="n">
-        <v>189.6954387557724</v>
+        <v>189.6954387557723</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.34293590816713</v>
+        <v>51.34293590816702</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>39.47091655912917</v>
+        <v>165.561951899538</v>
       </c>
       <c r="K33" t="n">
         <v>146.4063506335573</v>
       </c>
       <c r="L33" t="n">
-        <v>461.9939919134017</v>
+        <v>243.6518517039485</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8826107163097</v>
+        <v>310.6536605185298</v>
       </c>
       <c r="N33" t="n">
-        <v>326.4796659746245</v>
+        <v>805.822040318178</v>
       </c>
       <c r="O33" t="n">
-        <v>670.0831930890859</v>
+        <v>276.2208738123564</v>
       </c>
       <c r="P33" t="n">
         <v>520.6260221960679</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.08835546465603</v>
+        <v>80.08835546465605</v>
       </c>
       <c r="K34" t="n">
         <v>218.2985512941902</v>
@@ -37239,7 +37239,7 @@
         <v>339.0754737552545</v>
       </c>
       <c r="O34" t="n">
-        <v>302.288802628605</v>
+        <v>302.2888026286051</v>
       </c>
       <c r="P34" t="n">
         <v>244.876613568317</v>
@@ -37306,7 +37306,7 @@
         <v>267.2825040555377</v>
       </c>
       <c r="K35" t="n">
-        <v>522.5516364727538</v>
+        <v>522.5516364727537</v>
       </c>
       <c r="L35" t="n">
         <v>701.0761865060119</v>
@@ -37385,22 +37385,22 @@
         <v>39.47091655912919</v>
       </c>
       <c r="K36" t="n">
-        <v>146.4063506335574</v>
+        <v>292.90574636974</v>
       </c>
       <c r="L36" t="n">
-        <v>614.4921970074076</v>
+        <v>243.6518517039485</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8826107163098</v>
+        <v>769.5876744663096</v>
       </c>
       <c r="N36" t="n">
         <v>326.4796659746245</v>
       </c>
       <c r="O36" t="n">
-        <v>670.083193089086</v>
+        <v>276.2208738123564</v>
       </c>
       <c r="P36" t="n">
-        <v>368.1278171020614</v>
+        <v>520.6260221960679</v>
       </c>
       <c r="Q36" t="n">
         <v>84.71735046917848</v>
@@ -37546,25 +37546,25 @@
         <v>522.5516364727537</v>
       </c>
       <c r="L38" t="n">
-        <v>701.0761865060118</v>
+        <v>701.0761865060119</v>
       </c>
       <c r="M38" t="n">
-        <v>796.8566287638297</v>
+        <v>796.8566287638298</v>
       </c>
       <c r="N38" t="n">
         <v>794.9708066043637</v>
       </c>
       <c r="O38" t="n">
-        <v>705.0243113416341</v>
+        <v>705.0243113416335</v>
       </c>
       <c r="P38" t="n">
-        <v>563.6670061863289</v>
+        <v>563.667006186329</v>
       </c>
       <c r="Q38" t="n">
-        <v>345.288669619993</v>
+        <v>345.2886696199931</v>
       </c>
       <c r="R38" t="n">
-        <v>56.79423960815561</v>
+        <v>56.79423960815564</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>39.47091655912917</v>
+        <v>39.47091655912919</v>
       </c>
       <c r="K39" t="n">
-        <v>146.4063506335573</v>
+        <v>146.4063506335574</v>
       </c>
       <c r="L39" t="n">
-        <v>614.4921970074076</v>
+        <v>243.6518517039485</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8826107163097</v>
+        <v>303.8826107163098</v>
       </c>
       <c r="N39" t="n">
         <v>326.4796659746245</v>
       </c>
       <c r="O39" t="n">
-        <v>670.0831930890859</v>
+        <v>670.083193089086</v>
       </c>
       <c r="P39" t="n">
-        <v>368.1278171020618</v>
+        <v>520.6260221960679</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.71735046917846</v>
+        <v>294.7946382050276</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.264852473603517</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.08835546465605</v>
+        <v>80.088355464656</v>
       </c>
       <c r="K40" t="n">
         <v>218.2985512941902</v>
@@ -37710,16 +37710,16 @@
         <v>340.0277596072817</v>
       </c>
       <c r="N40" t="n">
-        <v>339.0754737552545</v>
+        <v>339.0754737552544</v>
       </c>
       <c r="O40" t="n">
-        <v>302.2888026286051</v>
+        <v>302.288802628605</v>
       </c>
       <c r="P40" t="n">
-        <v>244.876613568317</v>
+        <v>244.8766135683169</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.5241107207117</v>
+        <v>106.5241107207116</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>522.5516364727537</v>
       </c>
       <c r="L41" t="n">
-        <v>701.0761865060118</v>
+        <v>701.0761865060119</v>
       </c>
       <c r="M41" t="n">
-        <v>796.8566287638297</v>
+        <v>796.8566287638298</v>
       </c>
       <c r="N41" t="n">
         <v>794.9708066043637</v>
@@ -37795,13 +37795,13 @@
         <v>705.0243113416338</v>
       </c>
       <c r="P41" t="n">
-        <v>563.6670061863289</v>
+        <v>563.667006186329</v>
       </c>
       <c r="Q41" t="n">
-        <v>345.288669619993</v>
+        <v>345.2886696199931</v>
       </c>
       <c r="R41" t="n">
-        <v>56.79423960815561</v>
+        <v>56.79423960815564</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>39.47091655912917</v>
+        <v>39.47091655912919</v>
       </c>
       <c r="K42" t="n">
-        <v>146.4063506335573</v>
+        <v>146.4063506335574</v>
       </c>
       <c r="L42" t="n">
-        <v>614.4921970074076</v>
+        <v>243.6518517039485</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8826107163097</v>
+        <v>303.8826107163098</v>
       </c>
       <c r="N42" t="n">
-        <v>326.4796659746245</v>
+        <v>805.8220403181781</v>
       </c>
       <c r="O42" t="n">
-        <v>670.0831930890859</v>
+        <v>276.2208738123564</v>
       </c>
       <c r="P42" t="n">
-        <v>368.1278171020618</v>
+        <v>443.4108196028473</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.71735046917846</v>
+        <v>294.7946382050276</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>316.1070377874395</v>
       </c>
       <c r="M43" t="n">
-        <v>340.0277596072816</v>
+        <v>340.0277596072817</v>
       </c>
       <c r="N43" t="n">
-        <v>339.0754737552545</v>
+        <v>339.0754737552544</v>
       </c>
       <c r="O43" t="n">
         <v>302.288802628605</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>267.2825040555377</v>
+        <v>267.2825040555379</v>
       </c>
       <c r="K44" t="n">
         <v>522.5516364727537</v>
       </c>
       <c r="L44" t="n">
-        <v>701.076186506012</v>
+        <v>701.0761865060119</v>
       </c>
       <c r="M44" t="n">
-        <v>796.8566287638297</v>
+        <v>796.8566287638298</v>
       </c>
       <c r="N44" t="n">
         <v>794.9708066043637</v>
@@ -38032,13 +38032,13 @@
         <v>705.0243113416338</v>
       </c>
       <c r="P44" t="n">
-        <v>563.6670061863289</v>
+        <v>563.667006186329</v>
       </c>
       <c r="Q44" t="n">
-        <v>345.288669619993</v>
+        <v>345.2886696199931</v>
       </c>
       <c r="R44" t="n">
-        <v>56.79423960815561</v>
+        <v>56.79423960815564</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>39.47091655912917</v>
+        <v>39.47091655912919</v>
       </c>
       <c r="K45" t="n">
-        <v>146.4063506335573</v>
+        <v>146.4063506335574</v>
       </c>
       <c r="L45" t="n">
         <v>614.4921970074076</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8826107163097</v>
+        <v>303.8826107163098</v>
       </c>
       <c r="N45" t="n">
         <v>326.4796659746245</v>
       </c>
       <c r="O45" t="n">
-        <v>517.5849879950796</v>
+        <v>670.083193089086</v>
       </c>
       <c r="P45" t="n">
-        <v>520.6260221960679</v>
+        <v>202.1632535561308</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.71735046917846</v>
+        <v>250.6819140151093</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.08835546465599</v>
+        <v>80.088355464656</v>
       </c>
       <c r="K46" t="n">
         <v>218.2985512941902</v>
@@ -38181,7 +38181,7 @@
         <v>316.1070377874395</v>
       </c>
       <c r="M46" t="n">
-        <v>340.0277596072816</v>
+        <v>340.0277596072817</v>
       </c>
       <c r="N46" t="n">
         <v>339.0754737552544</v>
